--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/2_five_bus_radial_grid_ynyn_gen_pf_sc_results_0_branch_ward34_resistance.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/2_five_bus_radial_grid_ynyn_gen_pf_sc_results_0_branch_ward34_resistance.xlsx
@@ -994,40 +994,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.605323420844211E-14</v>
+        <v>-4.301908298608072E-28</v>
       </c>
       <c r="O2">
-        <v>1.302657324430829E-14</v>
+        <v>1.563189667103331E-14</v>
       </c>
       <c r="P2">
-        <v>5.210602310044589E-15</v>
+        <v>-3.126392559129573E-14</v>
       </c>
       <c r="Q2">
-        <v>1.563194052506538E-14</v>
+        <v>-1.042129368337631E-14</v>
       </c>
       <c r="R2">
-        <v>-1.04208215775057E-14</v>
+        <v>-2.60485132109143E-15</v>
       </c>
       <c r="S2">
-        <v>-1.042082090133837E-14</v>
+        <v>2.605370699656625E-14</v>
       </c>
       <c r="T2">
-        <v>2.084258736675318E-14</v>
+        <v>3.647452789181863E-14</v>
       </c>
       <c r="U2">
-        <v>5.763394861896599E-09</v>
+        <v>5.763415704483954E-09</v>
       </c>
       <c r="V2">
-        <v>-5.763402682029843E-09</v>
+        <v>-5.76338183944246E-09</v>
       </c>
       <c r="W2">
-        <v>-2.08425873667533E-14</v>
+        <v>-3.647452789181874E-14</v>
       </c>
       <c r="X2">
-        <v>-5.763400072057539E-09</v>
+        <v>-5.763410493351213E-09</v>
       </c>
       <c r="Y2">
-        <v>5.763402682515742E-09</v>
+        <v>5.763392261222044E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -1051,37 +1051,37 @@
         <v>1.100000023808766</v>
       </c>
       <c r="AG2">
-        <v>0.550000011705746</v>
+        <v>0.5500000117057455</v>
       </c>
       <c r="AH2">
-        <v>0.5500000121030185</v>
+        <v>0.5500000121030176</v>
       </c>
       <c r="AI2">
         <v>1.100000023808766</v>
       </c>
       <c r="AJ2">
-        <v>0.5500000116593766</v>
+        <v>0.5500000116593762</v>
       </c>
       <c r="AK2">
-        <v>0.5500000121493877</v>
+        <v>0.550000012149387</v>
       </c>
       <c r="AL2">
-        <v>6.835683379550131E-13</v>
+        <v>6.757625214330023E-13</v>
       </c>
       <c r="AM2">
-        <v>-179.9999999995567</v>
+        <v>-179.9999999995568</v>
       </c>
       <c r="AN2">
         <v>179.99999999955</v>
       </c>
       <c r="AO2">
-        <v>7.06355645745588E-13</v>
+        <v>6.832222382337302E-13</v>
       </c>
       <c r="AP2">
         <v>-179.9999999952994</v>
       </c>
       <c r="AQ2">
-        <v>179.9999999952926</v>
+        <v>179.9999999952927</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -1125,40 +1125,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-1.563194052506458E-14</v>
+        <v>-5.210646841688121E-15</v>
       </c>
       <c r="O3">
-        <v>1.302682204731261E-14</v>
+        <v>-5.210441892235249E-15</v>
       </c>
       <c r="P3">
-        <v>1.563214570858114E-14</v>
+        <v>1.042149886354878E-14</v>
       </c>
       <c r="Q3">
-        <v>5.210646841687731E-15</v>
+        <v>-5.210646841688684E-15</v>
       </c>
       <c r="R3">
-        <v>-1.573656534921777E-19</v>
+        <v>1.823710657244146E-14</v>
       </c>
       <c r="S3">
-        <v>-3.126403865961736E-14</v>
+        <v>-1.563209812363152E-14</v>
       </c>
       <c r="T3">
-        <v>-4.168517473350715E-14</v>
+        <v>-2.084258736675355E-14</v>
       </c>
       <c r="U3">
-        <v>-1.921131620416245E-09</v>
+        <v>-1.921121199122566E-09</v>
       </c>
       <c r="V3">
-        <v>1.92111338497186E-09</v>
+        <v>1.921134227559234E-09</v>
       </c>
       <c r="W3">
-        <v>5.21064684168838E-14</v>
+        <v>2.60532342084418E-14</v>
       </c>
       <c r="X3">
-        <v>1.921115988529715E-09</v>
+        <v>1.921126409823394E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.921134227505244E-09</v>
+        <v>-1.921123806211556E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1179,40 +1179,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.100000023808765</v>
+        <v>1.100000023808766</v>
       </c>
       <c r="AG3">
-        <v>0.5500000116439208</v>
+        <v>0.5500000116439201</v>
       </c>
       <c r="AH3">
-        <v>0.5500000121648446</v>
+        <v>0.5500000121648437</v>
       </c>
       <c r="AI3">
         <v>1.100000023808766</v>
       </c>
       <c r="AJ3">
-        <v>0.5500000116593766</v>
+        <v>0.5500000116593762</v>
       </c>
       <c r="AK3">
-        <v>0.5500000121493877</v>
+        <v>0.550000012149387</v>
       </c>
       <c r="AL3">
-        <v>7.194758010685721E-13</v>
+        <v>6.894416980032988E-13</v>
       </c>
       <c r="AM3">
         <v>-179.9999999938803</v>
       </c>
       <c r="AN3">
-        <v>179.9999999938735</v>
+        <v>179.9999999938736</v>
       </c>
       <c r="AO3">
-        <v>7.06355645745588E-13</v>
+        <v>6.832222382337302E-13</v>
       </c>
       <c r="AP3">
         <v>-179.9999999952994</v>
       </c>
       <c r="AQ3">
-        <v>179.9999999952926</v>
+        <v>179.9999999952927</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -1256,40 +1256,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-5.210646841687913E-15</v>
+        <v>-5.210646841688121E-15</v>
       </c>
       <c r="O4">
-        <v>2.605528368871056E-15</v>
+        <v>-5.210441892235249E-15</v>
       </c>
       <c r="P4">
-        <v>3.647473308631799E-14</v>
+        <v>1.042149886354878E-14</v>
       </c>
       <c r="Q4">
-        <v>-5.210646841688824E-15</v>
+        <v>-5.210646841688684E-15</v>
       </c>
       <c r="R4">
-        <v>1.042113631137363E-14</v>
+        <v>1.823710657244146E-14</v>
       </c>
       <c r="S4">
-        <v>-4.168533234763641E-14</v>
+        <v>-1.563209812363152E-14</v>
       </c>
       <c r="T4">
-        <v>-3.647452789181866E-14</v>
+        <v>-2.084258736675355E-14</v>
       </c>
       <c r="U4">
-        <v>-1.921131620416245E-09</v>
+        <v>-1.921121199122566E-09</v>
       </c>
       <c r="V4">
-        <v>1.921123806265546E-09</v>
+        <v>1.921134227559234E-09</v>
       </c>
       <c r="W4">
-        <v>3.647452789181855E-14</v>
+        <v>2.60532342084418E-14</v>
       </c>
       <c r="X4">
-        <v>1.921136831117073E-09</v>
+        <v>1.921126409823394E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.921134227505244E-09</v>
+        <v>-1.921123806211556E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1310,40 +1310,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.100000023808765</v>
+        <v>1.100000023808766</v>
       </c>
       <c r="AG4">
-        <v>0.5500000116439206</v>
+        <v>0.5500000116439201</v>
       </c>
       <c r="AH4">
-        <v>0.5500000121648447</v>
+        <v>0.5500000121648437</v>
       </c>
       <c r="AI4">
         <v>1.100000023808766</v>
       </c>
       <c r="AJ4">
-        <v>0.5500000116593766</v>
+        <v>0.5500000116593762</v>
       </c>
       <c r="AK4">
-        <v>0.5500000121493877</v>
+        <v>0.550000012149387</v>
       </c>
       <c r="AL4">
-        <v>7.194740614528267E-13</v>
+        <v>6.894416980032988E-13</v>
       </c>
       <c r="AM4">
         <v>-179.9999999938803</v>
       </c>
       <c r="AN4">
-        <v>179.9999999938735</v>
+        <v>179.9999999938736</v>
       </c>
       <c r="AO4">
-        <v>7.06355645745588E-13</v>
+        <v>6.832222382337302E-13</v>
       </c>
       <c r="AP4">
         <v>-179.9999999952994</v>
       </c>
       <c r="AQ4">
-        <v>179.9999999952926</v>
+        <v>179.9999999952927</v>
       </c>
     </row>
   </sheetData>
@@ -1531,40 +1531,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.605323420851912E-14</v>
+        <v>-5.210646841704072E-15</v>
       </c>
       <c r="O2">
-        <v>-7.307806493710491E-10</v>
+        <v>-7.307579852475326E-10</v>
       </c>
       <c r="P2">
-        <v>-2.039307866162078E-09</v>
+        <v>-2.039330441033477E-09</v>
       </c>
       <c r="Q2">
-        <v>1.563194052511158E-14</v>
+        <v>5.210646841704025E-15</v>
       </c>
       <c r="R2">
-        <v>7.307922790327673E-10</v>
+        <v>7.307664973186875E-10</v>
       </c>
       <c r="S2">
-        <v>2.039307866451099E-09</v>
+        <v>2.039324573230823E-09</v>
       </c>
       <c r="T2">
-        <v>2.605323420851863E-14</v>
+        <v>3.126388105022261E-14</v>
       </c>
       <c r="U2">
-        <v>5.822514425773938E-09</v>
+        <v>5.822517195110284E-09</v>
       </c>
       <c r="V2">
-        <v>-3.556072532027604E-09</v>
+        <v>-3.556044013723555E-09</v>
       </c>
       <c r="W2">
-        <v>-2.605323420851873E-14</v>
+        <v>-2.605323420851883E-14</v>
       </c>
       <c r="X2">
-        <v>-5.822507943897208E-09</v>
+        <v>-5.822511554223115E-09</v>
       </c>
       <c r="Y2">
-        <v>3.556072532355529E-09</v>
+        <v>3.556041509918044E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -1588,37 +1588,37 @@
         <v>1.100000023812018</v>
       </c>
       <c r="AG2">
-        <v>0.6816683458635713</v>
+        <v>0.6816683458635708</v>
       </c>
       <c r="AH2">
-        <v>0.4761907155780341</v>
+        <v>0.4761907155780333</v>
       </c>
       <c r="AI2">
         <v>1.100000023812018</v>
       </c>
       <c r="AJ2">
-        <v>0.6816683458299556</v>
+        <v>0.6816683458299553</v>
       </c>
       <c r="AK2">
-        <v>0.4761907156277809</v>
+        <v>0.4761907156277801</v>
       </c>
       <c r="AL2">
-        <v>5.369997152294586E-13</v>
+        <v>5.413568750410379E-13</v>
       </c>
       <c r="AM2">
-        <v>-164.9034422584273</v>
+        <v>-164.9034422584274</v>
       </c>
       <c r="AN2">
         <v>158.1097491654785</v>
       </c>
       <c r="AO2">
-        <v>5.545441815281501E-13</v>
+        <v>5.485032745736686E-13</v>
       </c>
       <c r="AP2">
         <v>-164.9034422552287</v>
       </c>
       <c r="AQ2">
-        <v>158.1097491642543</v>
+        <v>158.1097491642544</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -1662,40 +1662,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-2.084258736681484E-14</v>
+        <v>-5.210646841703673E-15</v>
       </c>
       <c r="O3">
-        <v>2.436098485782495E-10</v>
+        <v>2.435984655732221E-10</v>
       </c>
       <c r="P3">
-        <v>6.797732009102621E-10</v>
+        <v>6.797690147977048E-10</v>
       </c>
       <c r="Q3">
-        <v>1.563194052511107E-14</v>
+        <v>5.210646841703627E-15</v>
       </c>
       <c r="R3">
-        <v>-2.435982191734383E-10</v>
+        <v>-2.435774833967162E-10</v>
       </c>
       <c r="S3">
-        <v>-6.797765648363851E-10</v>
+        <v>-6.79774882857264E-10</v>
       </c>
       <c r="T3">
-        <v>-2.605323420851907E-14</v>
+        <v>-1.04212936834076E-14</v>
       </c>
       <c r="U3">
-        <v>-1.940815908032162E-09</v>
+        <v>-1.94083570093278E-09</v>
       </c>
       <c r="V3">
-        <v>1.185359180243904E-09</v>
+        <v>1.185360862223021E-09</v>
       </c>
       <c r="W3">
-        <v>2.605323420851903E-14</v>
+        <v>1.563194052511138E-14</v>
       </c>
       <c r="X3">
-        <v>1.940822389617398E-09</v>
+        <v>1.940844705486696E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.185367552432575E-09</v>
+        <v>-1.18536336632002E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1719,37 +1719,37 @@
         <v>1.100000023812017</v>
       </c>
       <c r="AG3">
-        <v>0.681668345818751</v>
+        <v>0.6816683458187504</v>
       </c>
       <c r="AH3">
-        <v>0.4761907156443635</v>
+        <v>0.4761907156443626</v>
       </c>
       <c r="AI3">
         <v>1.100000023812018</v>
       </c>
       <c r="AJ3">
-        <v>0.6816683458299556</v>
+        <v>0.6816683458299553</v>
       </c>
       <c r="AK3">
-        <v>0.4761907156277809</v>
+        <v>0.4761907156277801</v>
       </c>
       <c r="AL3">
-        <v>5.665163787924766E-13</v>
+        <v>5.570089230873694E-13</v>
       </c>
       <c r="AM3">
         <v>-164.9034422541625</v>
       </c>
       <c r="AN3">
-        <v>158.1097491638463</v>
+        <v>158.1097491638464</v>
       </c>
       <c r="AO3">
-        <v>5.545441815281501E-13</v>
+        <v>5.485032745736686E-13</v>
       </c>
       <c r="AP3">
         <v>-164.9034422552287</v>
       </c>
       <c r="AQ3">
-        <v>158.1097491642543</v>
+        <v>158.1097491642544</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -1793,40 +1793,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>3.122143863946192E-28</v>
+        <v>-5.210646841703673E-15</v>
       </c>
       <c r="O4">
-        <v>2.435973782159913E-10</v>
+        <v>2.435984655732221E-10</v>
       </c>
       <c r="P4">
-        <v>6.797765648684993E-10</v>
+        <v>6.797690147977048E-10</v>
       </c>
       <c r="Q4">
-        <v>-5.210646841704078E-15</v>
+        <v>5.210646841703627E-15</v>
       </c>
       <c r="R4">
-        <v>-2.435982191734383E-10</v>
+        <v>-2.435774833967162E-10</v>
       </c>
       <c r="S4">
-        <v>-6.797849370614934E-10</v>
+        <v>-6.79774882857264E-10</v>
       </c>
       <c r="T4">
-        <v>-3.126388105022264E-14</v>
+        <v>-1.04212936834076E-14</v>
       </c>
       <c r="U4">
-        <v>-1.940819271990399E-09</v>
+        <v>-1.94083570093278E-09</v>
       </c>
       <c r="V4">
-        <v>1.185367552469013E-09</v>
+        <v>1.185360862223021E-09</v>
       </c>
       <c r="W4">
-        <v>3.12638810502226E-14</v>
+        <v>1.563194052511138E-14</v>
       </c>
       <c r="X4">
-        <v>1.940822389617398E-09</v>
+        <v>1.940844705486696E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.185364188474338E-09</v>
+        <v>-1.18536336632002E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1850,37 +1850,37 @@
         <v>1.100000023812017</v>
       </c>
       <c r="AG4">
-        <v>0.6816683458187509</v>
+        <v>0.6816683458187504</v>
       </c>
       <c r="AH4">
-        <v>0.4761907156443637</v>
+        <v>0.4761907156443626</v>
       </c>
       <c r="AI4">
         <v>1.100000023812018</v>
       </c>
       <c r="AJ4">
-        <v>0.6816683458299556</v>
+        <v>0.6816683458299553</v>
       </c>
       <c r="AK4">
-        <v>0.4761907156277809</v>
+        <v>0.4761907156277801</v>
       </c>
       <c r="AL4">
-        <v>5.721799739111493E-13</v>
+        <v>5.570089230873694E-13</v>
       </c>
       <c r="AM4">
         <v>-164.9034422541625</v>
       </c>
       <c r="AN4">
-        <v>158.1097491638463</v>
+        <v>158.1097491638464</v>
       </c>
       <c r="AO4">
-        <v>5.545441815281501E-13</v>
+        <v>5.485032745736686E-13</v>
       </c>
       <c r="AP4">
         <v>-164.9034422552287</v>
       </c>
       <c r="AQ4">
-        <v>158.1097491642543</v>
+        <v>158.1097491642544</v>
       </c>
     </row>
   </sheetData>
@@ -2068,40 +2068,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.605323420851912E-14</v>
+        <v>-5.210646841704072E-15</v>
       </c>
       <c r="O2">
-        <v>-7.307806493710491E-10</v>
+        <v>-7.307579852475326E-10</v>
       </c>
       <c r="P2">
-        <v>-2.039307866162078E-09</v>
+        <v>-2.039330441033477E-09</v>
       </c>
       <c r="Q2">
-        <v>1.563194052511158E-14</v>
+        <v>5.210646841704025E-15</v>
       </c>
       <c r="R2">
-        <v>7.307922790327673E-10</v>
+        <v>7.307664973186875E-10</v>
       </c>
       <c r="S2">
-        <v>2.039307866451099E-09</v>
+        <v>2.039324573230823E-09</v>
       </c>
       <c r="T2">
-        <v>2.605323420851863E-14</v>
+        <v>3.126388105022261E-14</v>
       </c>
       <c r="U2">
-        <v>5.822514425773938E-09</v>
+        <v>5.822517195110284E-09</v>
       </c>
       <c r="V2">
-        <v>-3.556072532027604E-09</v>
+        <v>-3.556044013723555E-09</v>
       </c>
       <c r="W2">
-        <v>-2.605323420851873E-14</v>
+        <v>-2.605323420851883E-14</v>
       </c>
       <c r="X2">
-        <v>-5.822507943897208E-09</v>
+        <v>-5.822511554223115E-09</v>
       </c>
       <c r="Y2">
-        <v>3.556072532355529E-09</v>
+        <v>3.556041509918044E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -2125,37 +2125,37 @@
         <v>1.100000023812018</v>
       </c>
       <c r="AG2">
-        <v>0.6816683458635713</v>
+        <v>0.6816683458635708</v>
       </c>
       <c r="AH2">
-        <v>0.4761907155780341</v>
+        <v>0.4761907155780333</v>
       </c>
       <c r="AI2">
         <v>1.100000023812018</v>
       </c>
       <c r="AJ2">
-        <v>0.6816683458299556</v>
+        <v>0.6816683458299553</v>
       </c>
       <c r="AK2">
-        <v>0.4761907156277809</v>
+        <v>0.4761907156277801</v>
       </c>
       <c r="AL2">
-        <v>5.369997152294586E-13</v>
+        <v>5.413568750410379E-13</v>
       </c>
       <c r="AM2">
-        <v>-164.9034422584273</v>
+        <v>-164.9034422584274</v>
       </c>
       <c r="AN2">
         <v>158.1097491654785</v>
       </c>
       <c r="AO2">
-        <v>5.545441815281501E-13</v>
+        <v>5.485032745736686E-13</v>
       </c>
       <c r="AP2">
         <v>-164.9034422552287</v>
       </c>
       <c r="AQ2">
-        <v>158.1097491642543</v>
+        <v>158.1097491642544</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -2199,40 +2199,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-2.084258736681484E-14</v>
+        <v>-5.210646841703673E-15</v>
       </c>
       <c r="O3">
-        <v>2.436098485782495E-10</v>
+        <v>2.435984655732221E-10</v>
       </c>
       <c r="P3">
-        <v>6.797732009102621E-10</v>
+        <v>6.797690147977048E-10</v>
       </c>
       <c r="Q3">
-        <v>1.563194052511107E-14</v>
+        <v>5.210646841703627E-15</v>
       </c>
       <c r="R3">
-        <v>-2.435982191734383E-10</v>
+        <v>-2.435774833967162E-10</v>
       </c>
       <c r="S3">
-        <v>-6.797765648363851E-10</v>
+        <v>-6.79774882857264E-10</v>
       </c>
       <c r="T3">
-        <v>-2.605323420851907E-14</v>
+        <v>-1.04212936834076E-14</v>
       </c>
       <c r="U3">
-        <v>-1.940815908032162E-09</v>
+        <v>-1.94083570093278E-09</v>
       </c>
       <c r="V3">
-        <v>1.185359180243904E-09</v>
+        <v>1.185360862223021E-09</v>
       </c>
       <c r="W3">
-        <v>2.605323420851903E-14</v>
+        <v>1.563194052511138E-14</v>
       </c>
       <c r="X3">
-        <v>1.940822389617398E-09</v>
+        <v>1.940844705486696E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.185367552432575E-09</v>
+        <v>-1.18536336632002E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -2256,37 +2256,37 @@
         <v>1.100000023812017</v>
       </c>
       <c r="AG3">
-        <v>0.681668345818751</v>
+        <v>0.6816683458187504</v>
       </c>
       <c r="AH3">
-        <v>0.4761907156443635</v>
+        <v>0.4761907156443626</v>
       </c>
       <c r="AI3">
         <v>1.100000023812018</v>
       </c>
       <c r="AJ3">
-        <v>0.6816683458299556</v>
+        <v>0.6816683458299553</v>
       </c>
       <c r="AK3">
-        <v>0.4761907156277809</v>
+        <v>0.4761907156277801</v>
       </c>
       <c r="AL3">
-        <v>5.665163787924766E-13</v>
+        <v>5.570089230873694E-13</v>
       </c>
       <c r="AM3">
         <v>-164.9034422541625</v>
       </c>
       <c r="AN3">
-        <v>158.1097491638463</v>
+        <v>158.1097491638464</v>
       </c>
       <c r="AO3">
-        <v>5.545441815281501E-13</v>
+        <v>5.485032745736686E-13</v>
       </c>
       <c r="AP3">
         <v>-164.9034422552287</v>
       </c>
       <c r="AQ3">
-        <v>158.1097491642543</v>
+        <v>158.1097491642544</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -2330,40 +2330,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>3.122143863946192E-28</v>
+        <v>-5.210646841703673E-15</v>
       </c>
       <c r="O4">
-        <v>2.435973782159913E-10</v>
+        <v>2.435984655732221E-10</v>
       </c>
       <c r="P4">
-        <v>6.797765648684993E-10</v>
+        <v>6.797690147977048E-10</v>
       </c>
       <c r="Q4">
-        <v>-5.210646841704078E-15</v>
+        <v>5.210646841703627E-15</v>
       </c>
       <c r="R4">
-        <v>-2.435982191734383E-10</v>
+        <v>-2.435774833967162E-10</v>
       </c>
       <c r="S4">
-        <v>-6.797849370614934E-10</v>
+        <v>-6.79774882857264E-10</v>
       </c>
       <c r="T4">
-        <v>-3.126388105022264E-14</v>
+        <v>-1.04212936834076E-14</v>
       </c>
       <c r="U4">
-        <v>-1.940819271990399E-09</v>
+        <v>-1.94083570093278E-09</v>
       </c>
       <c r="V4">
-        <v>1.185367552469013E-09</v>
+        <v>1.185360862223021E-09</v>
       </c>
       <c r="W4">
-        <v>3.12638810502226E-14</v>
+        <v>1.563194052511138E-14</v>
       </c>
       <c r="X4">
-        <v>1.940822389617398E-09</v>
+        <v>1.940844705486696E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.185364188474338E-09</v>
+        <v>-1.18536336632002E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -2387,37 +2387,37 @@
         <v>1.100000023812017</v>
       </c>
       <c r="AG4">
-        <v>0.6816683458187509</v>
+        <v>0.6816683458187504</v>
       </c>
       <c r="AH4">
-        <v>0.4761907156443637</v>
+        <v>0.4761907156443626</v>
       </c>
       <c r="AI4">
         <v>1.100000023812018</v>
       </c>
       <c r="AJ4">
-        <v>0.6816683458299556</v>
+        <v>0.6816683458299553</v>
       </c>
       <c r="AK4">
-        <v>0.4761907156277809</v>
+        <v>0.4761907156277801</v>
       </c>
       <c r="AL4">
-        <v>5.721799739111493E-13</v>
+        <v>5.570089230873694E-13</v>
       </c>
       <c r="AM4">
         <v>-164.9034422541625</v>
       </c>
       <c r="AN4">
-        <v>158.1097491638463</v>
+        <v>158.1097491638464</v>
       </c>
       <c r="AO4">
-        <v>5.545441815281501E-13</v>
+        <v>5.485032745736686E-13</v>
       </c>
       <c r="AP4">
         <v>-164.9034422552287</v>
       </c>
       <c r="AQ4">
-        <v>158.1097491642543</v>
+        <v>158.1097491642544</v>
       </c>
     </row>
   </sheetData>
@@ -2605,40 +2605,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-9.473903143471385E-15</v>
+        <v>-7.105427357603777E-15</v>
       </c>
       <c r="O2">
-        <v>-5.92129177606192E-15</v>
+        <v>-1.657943281188721E-14</v>
       </c>
       <c r="P2">
-        <v>-7.105530247957143E-15</v>
+        <v>9.473800253700192E-15</v>
       </c>
       <c r="Q2">
-        <v>4.736951571735751E-15</v>
+        <v>4.736951571735935E-15</v>
       </c>
       <c r="R2">
-        <v>7.106209196772966E-15</v>
+        <v>1.894858812761756E-14</v>
       </c>
       <c r="S2">
-        <v>9.474685566908042E-15</v>
+        <v>-9.473120717779851E-15</v>
       </c>
       <c r="T2">
-        <v>-1.174291235863038E-28</v>
+        <v>1.894780628694269E-14</v>
       </c>
       <c r="U2">
-        <v>4.763118490472593E-09</v>
+        <v>4.763125595899942E-09</v>
       </c>
       <c r="V2">
-        <v>-4.763113757011744E-09</v>
+        <v>-4.763123230914888E-09</v>
       </c>
       <c r="W2">
-        <v>-4.736951571735634E-15</v>
+        <v>-1.894780628694271E-14</v>
       </c>
       <c r="X2">
-        <v>-4.763116121595246E-09</v>
+        <v>-4.763125595498376E-09</v>
       </c>
       <c r="Y2">
-        <v>4.763118494364883E-09</v>
+        <v>4.763132705219603E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -2662,37 +2662,37 @@
         <v>1.000000000000357</v>
       </c>
       <c r="AG2">
-        <v>0.4999999998169617</v>
+        <v>0.499999999816961</v>
       </c>
       <c r="AH2">
-        <v>0.5000000001833943</v>
+        <v>0.500000000183394</v>
       </c>
       <c r="AI2">
         <v>1.000000000000357</v>
       </c>
       <c r="AJ2">
-        <v>0.4999999997748084</v>
+        <v>0.4999999997748077</v>
       </c>
       <c r="AK2">
-        <v>0.5000000002255481</v>
+        <v>0.5000000002255477</v>
       </c>
       <c r="AL2">
-        <v>7.101817562966736E-13</v>
+        <v>7.161060605802315E-13</v>
       </c>
       <c r="AM2">
-        <v>-179.999999998762</v>
+        <v>-179.9999999987619</v>
       </c>
       <c r="AN2">
         <v>179.999999998755</v>
       </c>
       <c r="AO2">
-        <v>7.168607910624874E-13</v>
+        <v>7.337600626401733E-13</v>
       </c>
       <c r="AP2">
-        <v>-179.9999999905879</v>
+        <v>-179.9999999905878</v>
       </c>
       <c r="AQ2">
-        <v>179.999999990581</v>
+        <v>179.9999999905808</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -2739,37 +2739,37 @@
         <v>-7.105427357603596E-15</v>
       </c>
       <c r="O3">
-        <v>-1.183901772591708E-15</v>
+        <v>7.105763477298058E-15</v>
       </c>
       <c r="P3">
-        <v>2.368812096146955E-15</v>
+        <v>4.737287885616718E-15</v>
       </c>
       <c r="Q3">
-        <v>4.736951571735751E-15</v>
+        <v>4.736951571735754E-15</v>
       </c>
       <c r="R3">
-        <v>2.368215167566046E-15</v>
+        <v>-2.606174418554446E-19</v>
       </c>
       <c r="S3">
-        <v>4.736690766444529E-15</v>
+        <v>-2.608094685084956E-19</v>
       </c>
       <c r="T3">
-        <v>4.736951571735604E-15</v>
+        <v>4.736951571735603E-15</v>
       </c>
       <c r="U3">
-        <v>-1.587712479247819E-09</v>
+        <v>-1.5877148477236E-09</v>
       </c>
       <c r="V3">
-        <v>1.587707743816771E-09</v>
+        <v>1.58770774381677E-09</v>
       </c>
       <c r="W3">
-        <v>-4.736951571735634E-15</v>
+        <v>-4.736951571735632E-15</v>
       </c>
       <c r="X3">
-        <v>1.587724321671361E-09</v>
+        <v>1.587714847768219E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.587712480723728E-09</v>
+        <v>-1.587707743772152E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -2793,37 +2793,37 @@
         <v>1.000000000000357</v>
       </c>
       <c r="AG3">
-        <v>0.4999999997607573</v>
+        <v>0.4999999997607568</v>
       </c>
       <c r="AH3">
-        <v>0.5000000002395995</v>
+        <v>0.5000000002395992</v>
       </c>
       <c r="AI3">
         <v>1.000000000000357</v>
       </c>
       <c r="AJ3">
-        <v>0.4999999997748084</v>
+        <v>0.4999999997748077</v>
       </c>
       <c r="AK3">
-        <v>0.5000000002255481</v>
+        <v>0.5000000002255477</v>
       </c>
       <c r="AL3">
-        <v>7.063882515190411E-13</v>
+        <v>7.124240683461224E-13</v>
       </c>
       <c r="AM3">
-        <v>-179.9999999878632</v>
+        <v>-179.999999987863</v>
       </c>
       <c r="AN3">
-        <v>179.9999999878563</v>
+        <v>179.9999999878562</v>
       </c>
       <c r="AO3">
-        <v>7.168607910624874E-13</v>
+        <v>7.337600626401733E-13</v>
       </c>
       <c r="AP3">
-        <v>-179.9999999905879</v>
+        <v>-179.9999999905878</v>
       </c>
       <c r="AQ3">
-        <v>179.999999990581</v>
+        <v>179.9999999905808</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -2867,40 +2867,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.421085471520713E-14</v>
+        <v>-7.105427357603596E-15</v>
       </c>
       <c r="O4">
-        <v>8.290001369053892E-15</v>
+        <v>7.105763477298058E-15</v>
       </c>
       <c r="P4">
-        <v>7.105763672510212E-15</v>
+        <v>4.737287885616718E-15</v>
       </c>
       <c r="Q4">
-        <v>-1.657933050107492E-14</v>
+        <v>4.736951571735754E-15</v>
       </c>
       <c r="R4">
-        <v>-7.10568797163507E-15</v>
+        <v>-2.606174418554446E-19</v>
       </c>
       <c r="S4">
-        <v>-2.608089825354682E-19</v>
+        <v>-2.608094685084956E-19</v>
       </c>
       <c r="T4">
-        <v>-4.736951571735515E-15</v>
+        <v>4.736951571735603E-15</v>
       </c>
       <c r="U4">
-        <v>-1.587721953150956E-09</v>
+        <v>-1.5877148477236E-09</v>
       </c>
       <c r="V4">
-        <v>1.587717217719919E-09</v>
+        <v>1.58770774381677E-09</v>
       </c>
       <c r="W4">
-        <v>-2.074336378576325E-28</v>
+        <v>-4.736951571735632E-15</v>
       </c>
       <c r="X4">
-        <v>1.587724321671359E-09</v>
+        <v>1.587714847768219E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.587721954626874E-09</v>
+        <v>-1.587707743772152E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -2924,37 +2924,37 @@
         <v>1.000000000000357</v>
       </c>
       <c r="AG4">
-        <v>0.4999999997607573</v>
+        <v>0.4999999997607568</v>
       </c>
       <c r="AH4">
-        <v>0.5000000002395996</v>
+        <v>0.5000000002395992</v>
       </c>
       <c r="AI4">
         <v>1.000000000000357</v>
       </c>
       <c r="AJ4">
-        <v>0.4999999997748084</v>
+        <v>0.4999999997748077</v>
       </c>
       <c r="AK4">
-        <v>0.5000000002255481</v>
+        <v>0.5000000002255477</v>
       </c>
       <c r="AL4">
-        <v>7.13313644437706E-13</v>
+        <v>7.124240683461224E-13</v>
       </c>
       <c r="AM4">
-        <v>-179.9999999878631</v>
+        <v>-179.999999987863</v>
       </c>
       <c r="AN4">
-        <v>179.9999999878563</v>
+        <v>179.9999999878562</v>
       </c>
       <c r="AO4">
-        <v>7.168607910624874E-13</v>
+        <v>7.337600626401733E-13</v>
       </c>
       <c r="AP4">
-        <v>-179.9999999905879</v>
+        <v>-179.9999999905878</v>
       </c>
       <c r="AQ4">
-        <v>179.999999990581</v>
+        <v>179.9999999905808</v>
       </c>
     </row>
   </sheetData>
@@ -3142,40 +3142,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-9.473903143471385E-15</v>
+        <v>-7.105427357603777E-15</v>
       </c>
       <c r="O2">
-        <v>-5.92129177606192E-15</v>
+        <v>-1.657943281188721E-14</v>
       </c>
       <c r="P2">
-        <v>-7.105530247957143E-15</v>
+        <v>9.473800253700192E-15</v>
       </c>
       <c r="Q2">
-        <v>4.736951571735751E-15</v>
+        <v>4.736951571735935E-15</v>
       </c>
       <c r="R2">
-        <v>7.106209196772966E-15</v>
+        <v>1.894858812761756E-14</v>
       </c>
       <c r="S2">
-        <v>9.474685566908042E-15</v>
+        <v>-9.473120717779851E-15</v>
       </c>
       <c r="T2">
-        <v>-1.174291235863038E-28</v>
+        <v>1.894780628694269E-14</v>
       </c>
       <c r="U2">
-        <v>4.763118490472593E-09</v>
+        <v>4.763125595899942E-09</v>
       </c>
       <c r="V2">
-        <v>-4.763113757011744E-09</v>
+        <v>-4.763123230914888E-09</v>
       </c>
       <c r="W2">
-        <v>-4.736951571735634E-15</v>
+        <v>-1.894780628694271E-14</v>
       </c>
       <c r="X2">
-        <v>-4.763116121595246E-09</v>
+        <v>-4.763125595498376E-09</v>
       </c>
       <c r="Y2">
-        <v>4.763118494364883E-09</v>
+        <v>4.763132705219603E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -3199,37 +3199,37 @@
         <v>1.000000000000357</v>
       </c>
       <c r="AG2">
-        <v>0.4999999998169617</v>
+        <v>0.499999999816961</v>
       </c>
       <c r="AH2">
-        <v>0.5000000001833943</v>
+        <v>0.500000000183394</v>
       </c>
       <c r="AI2">
         <v>1.000000000000357</v>
       </c>
       <c r="AJ2">
-        <v>0.4999999997748084</v>
+        <v>0.4999999997748077</v>
       </c>
       <c r="AK2">
-        <v>0.5000000002255481</v>
+        <v>0.5000000002255477</v>
       </c>
       <c r="AL2">
-        <v>7.101817562966736E-13</v>
+        <v>7.161060605802315E-13</v>
       </c>
       <c r="AM2">
-        <v>-179.999999998762</v>
+        <v>-179.9999999987619</v>
       </c>
       <c r="AN2">
         <v>179.999999998755</v>
       </c>
       <c r="AO2">
-        <v>7.168607910624874E-13</v>
+        <v>7.337600626401733E-13</v>
       </c>
       <c r="AP2">
-        <v>-179.9999999905879</v>
+        <v>-179.9999999905878</v>
       </c>
       <c r="AQ2">
-        <v>179.999999990581</v>
+        <v>179.9999999905808</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -3276,37 +3276,37 @@
         <v>-7.105427357603596E-15</v>
       </c>
       <c r="O3">
-        <v>-1.183901772591708E-15</v>
+        <v>7.105763477298058E-15</v>
       </c>
       <c r="P3">
-        <v>2.368812096146955E-15</v>
+        <v>4.737287885616718E-15</v>
       </c>
       <c r="Q3">
-        <v>4.736951571735751E-15</v>
+        <v>4.736951571735754E-15</v>
       </c>
       <c r="R3">
-        <v>2.368215167566046E-15</v>
+        <v>-2.606174418554446E-19</v>
       </c>
       <c r="S3">
-        <v>4.736690766444529E-15</v>
+        <v>-2.608094685084956E-19</v>
       </c>
       <c r="T3">
-        <v>4.736951571735604E-15</v>
+        <v>4.736951571735603E-15</v>
       </c>
       <c r="U3">
-        <v>-1.587712479247819E-09</v>
+        <v>-1.5877148477236E-09</v>
       </c>
       <c r="V3">
-        <v>1.587707743816771E-09</v>
+        <v>1.58770774381677E-09</v>
       </c>
       <c r="W3">
-        <v>-4.736951571735634E-15</v>
+        <v>-4.736951571735632E-15</v>
       </c>
       <c r="X3">
-        <v>1.587724321671361E-09</v>
+        <v>1.587714847768219E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.587712480723728E-09</v>
+        <v>-1.587707743772152E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -3330,37 +3330,37 @@
         <v>1.000000000000357</v>
       </c>
       <c r="AG3">
-        <v>0.4999999997607573</v>
+        <v>0.4999999997607568</v>
       </c>
       <c r="AH3">
-        <v>0.5000000002395995</v>
+        <v>0.5000000002395992</v>
       </c>
       <c r="AI3">
         <v>1.000000000000357</v>
       </c>
       <c r="AJ3">
-        <v>0.4999999997748084</v>
+        <v>0.4999999997748077</v>
       </c>
       <c r="AK3">
-        <v>0.5000000002255481</v>
+        <v>0.5000000002255477</v>
       </c>
       <c r="AL3">
-        <v>7.063882515190411E-13</v>
+        <v>7.124240683461224E-13</v>
       </c>
       <c r="AM3">
-        <v>-179.9999999878632</v>
+        <v>-179.999999987863</v>
       </c>
       <c r="AN3">
-        <v>179.9999999878563</v>
+        <v>179.9999999878562</v>
       </c>
       <c r="AO3">
-        <v>7.168607910624874E-13</v>
+        <v>7.337600626401733E-13</v>
       </c>
       <c r="AP3">
-        <v>-179.9999999905879</v>
+        <v>-179.9999999905878</v>
       </c>
       <c r="AQ3">
-        <v>179.999999990581</v>
+        <v>179.9999999905808</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -3404,40 +3404,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.421085471520713E-14</v>
+        <v>-7.105427357603596E-15</v>
       </c>
       <c r="O4">
-        <v>8.290001369053892E-15</v>
+        <v>7.105763477298058E-15</v>
       </c>
       <c r="P4">
-        <v>7.105763672510212E-15</v>
+        <v>4.737287885616718E-15</v>
       </c>
       <c r="Q4">
-        <v>-1.657933050107492E-14</v>
+        <v>4.736951571735754E-15</v>
       </c>
       <c r="R4">
-        <v>-7.10568797163507E-15</v>
+        <v>-2.606174418554446E-19</v>
       </c>
       <c r="S4">
-        <v>-2.608089825354682E-19</v>
+        <v>-2.608094685084956E-19</v>
       </c>
       <c r="T4">
-        <v>-4.736951571735515E-15</v>
+        <v>4.736951571735603E-15</v>
       </c>
       <c r="U4">
-        <v>-1.587721953150956E-09</v>
+        <v>-1.5877148477236E-09</v>
       </c>
       <c r="V4">
-        <v>1.587717217719919E-09</v>
+        <v>1.58770774381677E-09</v>
       </c>
       <c r="W4">
-        <v>-2.074336378576325E-28</v>
+        <v>-4.736951571735632E-15</v>
       </c>
       <c r="X4">
-        <v>1.587724321671359E-09</v>
+        <v>1.587714847768219E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.587721954626874E-09</v>
+        <v>-1.587707743772152E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -3461,37 +3461,37 @@
         <v>1.000000000000357</v>
       </c>
       <c r="AG4">
-        <v>0.4999999997607573</v>
+        <v>0.4999999997607568</v>
       </c>
       <c r="AH4">
-        <v>0.5000000002395996</v>
+        <v>0.5000000002395992</v>
       </c>
       <c r="AI4">
         <v>1.000000000000357</v>
       </c>
       <c r="AJ4">
-        <v>0.4999999997748084</v>
+        <v>0.4999999997748077</v>
       </c>
       <c r="AK4">
-        <v>0.5000000002255481</v>
+        <v>0.5000000002255477</v>
       </c>
       <c r="AL4">
-        <v>7.13313644437706E-13</v>
+        <v>7.124240683461224E-13</v>
       </c>
       <c r="AM4">
-        <v>-179.9999999878631</v>
+        <v>-179.999999987863</v>
       </c>
       <c r="AN4">
-        <v>179.9999999878563</v>
+        <v>179.9999999878562</v>
       </c>
       <c r="AO4">
-        <v>7.168607910624874E-13</v>
+        <v>7.337600626401733E-13</v>
       </c>
       <c r="AP4">
-        <v>-179.9999999905879</v>
+        <v>-179.9999999905878</v>
       </c>
       <c r="AQ4">
-        <v>179.999999990581</v>
+        <v>179.9999999905808</v>
       </c>
     </row>
   </sheetData>
@@ -3679,40 +3679,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.36847578588079E-15</v>
+        <v>-9.473903143523134E-15</v>
       </c>
       <c r="O2">
-        <v>-5.559634061250688E-10</v>
+        <v>-5.559811099559569E-10</v>
       </c>
       <c r="P2">
-        <v>-1.551459837822061E-09</v>
+        <v>-1.551454232167161E-09</v>
       </c>
       <c r="Q2">
-        <v>-2.368475785880691E-15</v>
+        <v>7.105427357642397E-15</v>
       </c>
       <c r="R2">
-        <v>5.559693762172179E-10</v>
+        <v>5.559811787711479E-10</v>
       </c>
       <c r="S2">
-        <v>1.551463717864591E-09</v>
+        <v>1.551454232646898E-09</v>
       </c>
       <c r="T2">
-        <v>4.736951571761458E-15</v>
+        <v>1.657933050116509E-14</v>
       </c>
       <c r="U2">
-        <v>4.833146696288446E-09</v>
+        <v>4.833164605125693E-09</v>
       </c>
       <c r="V2">
-        <v>-3.10888915612577E-09</v>
+        <v>-3.108904205857551E-09</v>
       </c>
       <c r="W2">
-        <v>-4.736951571761505E-15</v>
+        <v>-1.657933050116511E-14</v>
       </c>
       <c r="X2">
-        <v>-4.833140794727989E-09</v>
+        <v>-4.833152733952818E-09</v>
       </c>
       <c r="Y2">
-        <v>3.108887791991908E-09</v>
+        <v>3.108904206141049E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -3736,37 +3736,37 @@
         <v>1.000000000005801</v>
       </c>
       <c r="AG2">
-        <v>0.6078088903891383</v>
+        <v>0.6078088903891379</v>
       </c>
       <c r="AH2">
-        <v>0.434087010414059</v>
+        <v>0.4340870104140593</v>
       </c>
       <c r="AI2">
         <v>1.000000000005801</v>
       </c>
       <c r="AJ2">
-        <v>0.6078088903608012</v>
+        <v>0.6078088903608009</v>
       </c>
       <c r="AK2">
-        <v>0.4340870104725135</v>
+        <v>0.4340870104725136</v>
       </c>
       <c r="AL2">
-        <v>5.890989761634251E-13</v>
+        <v>5.905378344390861E-13</v>
       </c>
       <c r="AM2">
-        <v>-166.2935793302449</v>
+        <v>-166.2935793302448</v>
       </c>
       <c r="AN2">
-        <v>160.6235536346805</v>
+        <v>160.6235536346804</v>
       </c>
       <c r="AO2">
-        <v>5.979348424895735E-13</v>
+        <v>6.071649594190238E-13</v>
       </c>
       <c r="AP2">
-        <v>-166.2935793242505</v>
+        <v>-166.2935793242504</v>
       </c>
       <c r="AQ2">
-        <v>160.6235536296895</v>
+        <v>160.6235536296894</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -3810,40 +3810,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-7.105427357642171E-15</v>
+        <v>-7.105427357642196E-15</v>
       </c>
       <c r="O3">
-        <v>1.853220451998118E-10</v>
+        <v>1.853279464767763E-10</v>
       </c>
       <c r="P3">
-        <v>5.171542603285709E-10</v>
+        <v>5.17153684964536E-10</v>
       </c>
       <c r="Q3">
-        <v>2.368475785880691E-15</v>
+        <v>4.736951571761481E-15</v>
       </c>
       <c r="R3">
-        <v>-1.853175082869057E-10</v>
+        <v>-1.853265136706568E-10</v>
       </c>
       <c r="S3">
-        <v>-5.1715232049387E-10</v>
+        <v>-5.171523204938725E-10</v>
       </c>
       <c r="T3">
-        <v>-4.736951571761553E-15</v>
+        <v>-2.368475785880813E-15</v>
       </c>
       <c r="U3">
-        <v>-1.61105262819705E-09</v>
+        <v>-1.611058597809465E-09</v>
       </c>
       <c r="V3">
-        <v>1.036303306245034E-09</v>
+        <v>1.036307868016509E-09</v>
       </c>
       <c r="W3">
-        <v>4.736951571761505E-15</v>
+        <v>5.019760675708855E-29</v>
       </c>
       <c r="X3">
-        <v>1.611052252956482E-09</v>
+        <v>1.611064874389993E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.036303988422214E-09</v>
+        <v>-1.036303988422213E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -3867,37 +3867,37 @@
         <v>1.000000000005801</v>
       </c>
       <c r="AG3">
-        <v>0.6078088903513557</v>
+        <v>0.6078088903513553</v>
       </c>
       <c r="AH3">
-        <v>0.4340870104919983</v>
+        <v>0.4340870104919985</v>
       </c>
       <c r="AI3">
         <v>1.000000000005801</v>
       </c>
       <c r="AJ3">
-        <v>0.6078088903608012</v>
+        <v>0.6078088903608009</v>
       </c>
       <c r="AK3">
-        <v>0.4340870104725135</v>
+        <v>0.4340870104725136</v>
       </c>
       <c r="AL3">
-        <v>5.886568762626629E-13</v>
+        <v>5.885080757080645E-13</v>
       </c>
       <c r="AM3">
-        <v>-166.2935793222523</v>
+        <v>-166.2935793222522</v>
       </c>
       <c r="AN3">
-        <v>160.6235536280259</v>
+        <v>160.6235536280257</v>
       </c>
       <c r="AO3">
-        <v>5.979348424895735E-13</v>
+        <v>6.071649594190238E-13</v>
       </c>
       <c r="AP3">
-        <v>-166.2935793242505</v>
+        <v>-166.2935793242504</v>
       </c>
       <c r="AQ3">
-        <v>160.6235536296895</v>
+        <v>160.6235536296894</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -3941,40 +3941,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.368475785880716E-15</v>
+        <v>-7.105427357642196E-15</v>
       </c>
       <c r="O4">
-        <v>1.853317327922415E-10</v>
+        <v>1.853279464767763E-10</v>
       </c>
       <c r="P4">
-        <v>5.171517451831368E-10</v>
+        <v>5.17153684964536E-10</v>
       </c>
       <c r="Q4">
-        <v>-7.105427357642196E-15</v>
+        <v>4.736951571761481E-15</v>
       </c>
       <c r="R4">
-        <v>-1.853313574668689E-10</v>
+        <v>-1.853265136706568E-10</v>
       </c>
       <c r="S4">
-        <v>-5.171531095471927E-10</v>
+        <v>-5.171523204938725E-10</v>
       </c>
       <c r="T4">
-        <v>2.368475785880764E-15</v>
+        <v>-2.368475785880813E-15</v>
       </c>
       <c r="U4">
-        <v>-1.611068046800736E-09</v>
+        <v>-1.611058597809465E-09</v>
       </c>
       <c r="V4">
-        <v>1.036308550225189E-09</v>
+        <v>1.036307868016509E-09</v>
       </c>
       <c r="W4">
-        <v>-2.368475785880815E-15</v>
+        <v>5.019760675708855E-29</v>
       </c>
       <c r="X4">
-        <v>1.611072583691837E-09</v>
+        <v>1.611064874389993E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.036312429756483E-09</v>
+        <v>-1.036303988422213E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -3998,37 +3998,37 @@
         <v>1.000000000005801</v>
       </c>
       <c r="AG4">
-        <v>0.6078088903513558</v>
+        <v>0.6078088903513553</v>
       </c>
       <c r="AH4">
-        <v>0.4340870104919984</v>
+        <v>0.4340870104919985</v>
       </c>
       <c r="AI4">
         <v>1.000000000005801</v>
       </c>
       <c r="AJ4">
-        <v>0.6078088903608012</v>
+        <v>0.6078088903608009</v>
       </c>
       <c r="AK4">
-        <v>0.4340870104725135</v>
+        <v>0.4340870104725136</v>
       </c>
       <c r="AL4">
-        <v>5.886571720720432E-13</v>
+        <v>5.885080757080645E-13</v>
       </c>
       <c r="AM4">
-        <v>-166.2935793222523</v>
+        <v>-166.2935793222522</v>
       </c>
       <c r="AN4">
-        <v>160.6235536280258</v>
+        <v>160.6235536280257</v>
       </c>
       <c r="AO4">
-        <v>5.979348424895735E-13</v>
+        <v>6.071649594190238E-13</v>
       </c>
       <c r="AP4">
-        <v>-166.2935793242505</v>
+        <v>-166.2935793242504</v>
       </c>
       <c r="AQ4">
-        <v>160.6235536296895</v>
+        <v>160.6235536296894</v>
       </c>
     </row>
   </sheetData>
@@ -4216,40 +4216,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.36847578588079E-15</v>
+        <v>-9.473903143523134E-15</v>
       </c>
       <c r="O2">
-        <v>-5.559634061250688E-10</v>
+        <v>-5.559811099559569E-10</v>
       </c>
       <c r="P2">
-        <v>-1.551459837822061E-09</v>
+        <v>-1.551454232167161E-09</v>
       </c>
       <c r="Q2">
-        <v>-2.368475785880691E-15</v>
+        <v>7.105427357642397E-15</v>
       </c>
       <c r="R2">
-        <v>5.559693762172179E-10</v>
+        <v>5.559811787711479E-10</v>
       </c>
       <c r="S2">
-        <v>1.551463717864591E-09</v>
+        <v>1.551454232646898E-09</v>
       </c>
       <c r="T2">
-        <v>4.736951571761458E-15</v>
+        <v>1.657933050116509E-14</v>
       </c>
       <c r="U2">
-        <v>4.833146696288446E-09</v>
+        <v>4.833164605125693E-09</v>
       </c>
       <c r="V2">
-        <v>-3.10888915612577E-09</v>
+        <v>-3.108904205857551E-09</v>
       </c>
       <c r="W2">
-        <v>-4.736951571761505E-15</v>
+        <v>-1.657933050116511E-14</v>
       </c>
       <c r="X2">
-        <v>-4.833140794727989E-09</v>
+        <v>-4.833152733952818E-09</v>
       </c>
       <c r="Y2">
-        <v>3.108887791991908E-09</v>
+        <v>3.108904206141049E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -4273,37 +4273,37 @@
         <v>1.000000000005801</v>
       </c>
       <c r="AG2">
-        <v>0.6078088903891383</v>
+        <v>0.6078088903891379</v>
       </c>
       <c r="AH2">
-        <v>0.434087010414059</v>
+        <v>0.4340870104140593</v>
       </c>
       <c r="AI2">
         <v>1.000000000005801</v>
       </c>
       <c r="AJ2">
-        <v>0.6078088903608012</v>
+        <v>0.6078088903608009</v>
       </c>
       <c r="AK2">
-        <v>0.4340870104725135</v>
+        <v>0.4340870104725136</v>
       </c>
       <c r="AL2">
-        <v>5.890989761634251E-13</v>
+        <v>5.905378344390861E-13</v>
       </c>
       <c r="AM2">
-        <v>-166.2935793302449</v>
+        <v>-166.2935793302448</v>
       </c>
       <c r="AN2">
-        <v>160.6235536346805</v>
+        <v>160.6235536346804</v>
       </c>
       <c r="AO2">
-        <v>5.979348424895735E-13</v>
+        <v>6.071649594190238E-13</v>
       </c>
       <c r="AP2">
-        <v>-166.2935793242505</v>
+        <v>-166.2935793242504</v>
       </c>
       <c r="AQ2">
-        <v>160.6235536296895</v>
+        <v>160.6235536296894</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -4347,40 +4347,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-7.105427357642171E-15</v>
+        <v>-7.105427357642196E-15</v>
       </c>
       <c r="O3">
-        <v>1.853220451998118E-10</v>
+        <v>1.853279464767763E-10</v>
       </c>
       <c r="P3">
-        <v>5.171542603285709E-10</v>
+        <v>5.17153684964536E-10</v>
       </c>
       <c r="Q3">
-        <v>2.368475785880691E-15</v>
+        <v>4.736951571761481E-15</v>
       </c>
       <c r="R3">
-        <v>-1.853175082869057E-10</v>
+        <v>-1.853265136706568E-10</v>
       </c>
       <c r="S3">
-        <v>-5.1715232049387E-10</v>
+        <v>-5.171523204938725E-10</v>
       </c>
       <c r="T3">
-        <v>-4.736951571761553E-15</v>
+        <v>-2.368475785880813E-15</v>
       </c>
       <c r="U3">
-        <v>-1.61105262819705E-09</v>
+        <v>-1.611058597809465E-09</v>
       </c>
       <c r="V3">
-        <v>1.036303306245034E-09</v>
+        <v>1.036307868016509E-09</v>
       </c>
       <c r="W3">
-        <v>4.736951571761505E-15</v>
+        <v>5.019760675708855E-29</v>
       </c>
       <c r="X3">
-        <v>1.611052252956482E-09</v>
+        <v>1.611064874389993E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.036303988422214E-09</v>
+        <v>-1.036303988422213E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -4404,37 +4404,37 @@
         <v>1.000000000005801</v>
       </c>
       <c r="AG3">
-        <v>0.6078088903513557</v>
+        <v>0.6078088903513553</v>
       </c>
       <c r="AH3">
-        <v>0.4340870104919983</v>
+        <v>0.4340870104919985</v>
       </c>
       <c r="AI3">
         <v>1.000000000005801</v>
       </c>
       <c r="AJ3">
-        <v>0.6078088903608012</v>
+        <v>0.6078088903608009</v>
       </c>
       <c r="AK3">
-        <v>0.4340870104725135</v>
+        <v>0.4340870104725136</v>
       </c>
       <c r="AL3">
-        <v>5.886568762626629E-13</v>
+        <v>5.885080757080645E-13</v>
       </c>
       <c r="AM3">
-        <v>-166.2935793222523</v>
+        <v>-166.2935793222522</v>
       </c>
       <c r="AN3">
-        <v>160.6235536280259</v>
+        <v>160.6235536280257</v>
       </c>
       <c r="AO3">
-        <v>5.979348424895735E-13</v>
+        <v>6.071649594190238E-13</v>
       </c>
       <c r="AP3">
-        <v>-166.2935793242505</v>
+        <v>-166.2935793242504</v>
       </c>
       <c r="AQ3">
-        <v>160.6235536296895</v>
+        <v>160.6235536296894</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -4478,40 +4478,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.368475785880716E-15</v>
+        <v>-7.105427357642196E-15</v>
       </c>
       <c r="O4">
-        <v>1.853317327922415E-10</v>
+        <v>1.853279464767763E-10</v>
       </c>
       <c r="P4">
-        <v>5.171517451831368E-10</v>
+        <v>5.17153684964536E-10</v>
       </c>
       <c r="Q4">
-        <v>-7.105427357642196E-15</v>
+        <v>4.736951571761481E-15</v>
       </c>
       <c r="R4">
-        <v>-1.853313574668689E-10</v>
+        <v>-1.853265136706568E-10</v>
       </c>
       <c r="S4">
-        <v>-5.171531095471927E-10</v>
+        <v>-5.171523204938725E-10</v>
       </c>
       <c r="T4">
-        <v>2.368475785880764E-15</v>
+        <v>-2.368475785880813E-15</v>
       </c>
       <c r="U4">
-        <v>-1.611068046800736E-09</v>
+        <v>-1.611058597809465E-09</v>
       </c>
       <c r="V4">
-        <v>1.036308550225189E-09</v>
+        <v>1.036307868016509E-09</v>
       </c>
       <c r="W4">
-        <v>-2.368475785880815E-15</v>
+        <v>5.019760675708855E-29</v>
       </c>
       <c r="X4">
-        <v>1.611072583691837E-09</v>
+        <v>1.611064874389993E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.036312429756483E-09</v>
+        <v>-1.036303988422213E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -4535,37 +4535,37 @@
         <v>1.000000000005801</v>
       </c>
       <c r="AG4">
-        <v>0.6078088903513558</v>
+        <v>0.6078088903513553</v>
       </c>
       <c r="AH4">
-        <v>0.4340870104919984</v>
+        <v>0.4340870104919985</v>
       </c>
       <c r="AI4">
         <v>1.000000000005801</v>
       </c>
       <c r="AJ4">
-        <v>0.6078088903608012</v>
+        <v>0.6078088903608009</v>
       </c>
       <c r="AK4">
-        <v>0.4340870104725135</v>
+        <v>0.4340870104725136</v>
       </c>
       <c r="AL4">
-        <v>5.886571720720432E-13</v>
+        <v>5.885080757080645E-13</v>
       </c>
       <c r="AM4">
-        <v>-166.2935793222523</v>
+        <v>-166.2935793222522</v>
       </c>
       <c r="AN4">
-        <v>160.6235536280258</v>
+        <v>160.6235536280257</v>
       </c>
       <c r="AO4">
-        <v>5.979348424895735E-13</v>
+        <v>6.071649594190238E-13</v>
       </c>
       <c r="AP4">
-        <v>-166.2935793242505</v>
+        <v>-166.2935793242504</v>
       </c>
       <c r="AQ4">
-        <v>160.6235536296895</v>
+        <v>160.6235536296894</v>
       </c>
     </row>
   </sheetData>
@@ -4756,40 +4756,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.948863939231875E-09</v>
+        <v>-2.948835449814025E-09</v>
       </c>
       <c r="O2">
-        <v>-7.361108608868004E-10</v>
+        <v>-7.361165135924331E-10</v>
       </c>
       <c r="P2">
-        <v>-7.38325857310328E-10</v>
+        <v>-7.383297019569905E-10</v>
       </c>
       <c r="Q2">
-        <v>2.948864364899041E-09</v>
+        <v>2.94883587961905E-09</v>
       </c>
       <c r="R2">
-        <v>7.36093887718208E-10</v>
+        <v>7.361139428704685E-10</v>
       </c>
       <c r="S2">
-        <v>7.383303694094561E-10</v>
+        <v>7.383378628540965E-10</v>
       </c>
       <c r="T2">
-        <v>-2.618910895279132E-12</v>
+        <v>-2.623210013192801E-12</v>
       </c>
       <c r="U2">
-        <v>-3.854459686969427E-09</v>
+        <v>-3.854403637069014E-09</v>
       </c>
       <c r="V2">
-        <v>3.853124448217782E-09</v>
+        <v>3.853095649531322E-09</v>
       </c>
       <c r="W2">
-        <v>2.629270291448903E-12</v>
+        <v>2.626663510766998E-12</v>
       </c>
       <c r="X2">
-        <v>3.854468781328352E-09</v>
+        <v>3.854414654785733E-09</v>
       </c>
       <c r="Y2">
-        <v>-3.853123584908041E-09</v>
+        <v>-3.853089410948957E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -4810,25 +4810,25 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.3644696238511731</v>
+        <v>0.3644696238511732</v>
       </c>
       <c r="AH2">
-        <v>0.9700090737384334</v>
+        <v>0.9700090737384329</v>
       </c>
       <c r="AI2">
-        <v>0.969794580847491</v>
+        <v>0.9697945808474911</v>
       </c>
       <c r="AJ2">
-        <v>0.3644696238827592</v>
+        <v>0.3644696238827589</v>
       </c>
       <c r="AK2">
-        <v>0.9700090737589764</v>
+        <v>0.9700090737589758</v>
       </c>
       <c r="AL2">
-        <v>0.9697945808328791</v>
+        <v>0.9697945808328795</v>
       </c>
       <c r="AM2">
-        <v>0.03433038499314061</v>
+        <v>0.03433038499288073</v>
       </c>
       <c r="AN2">
         <v>-100.8284562165842</v>
@@ -4837,7 +4837,7 @@
         <v>100.8308801221831</v>
       </c>
       <c r="AP2">
-        <v>0.03433039061688672</v>
+        <v>0.03433039061658785</v>
       </c>
       <c r="AQ2">
         <v>-100.8284562173012</v>
@@ -4887,40 +4887,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>9.829534893341949E-10</v>
+        <v>9.829509022083883E-10</v>
       </c>
       <c r="O3">
-        <v>2.453676972786625E-10</v>
+        <v>2.453461125348992E-10</v>
       </c>
       <c r="P3">
-        <v>2.461266672730184E-10</v>
+        <v>2.461249407983708E-10</v>
       </c>
       <c r="Q3">
-        <v>-9.829530597560996E-10</v>
+        <v>-9.829504726302933E-10</v>
       </c>
       <c r="R3">
-        <v>-2.453674814622398E-10</v>
+        <v>-2.453585726904581E-10</v>
       </c>
       <c r="S3">
-        <v>-2.461238817052723E-10</v>
+        <v>-2.461167799579988E-10</v>
       </c>
       <c r="T3">
-        <v>8.833285854094425E-13</v>
+        <v>8.790108470854679E-13</v>
       </c>
       <c r="U3">
-        <v>1.284806356479356E-09</v>
+        <v>1.284828028296269E-09</v>
       </c>
       <c r="V3">
-        <v>-1.284371363091113E-09</v>
+        <v>-1.284362339020509E-09</v>
       </c>
       <c r="W3">
-        <v>-8.798753453121851E-13</v>
+        <v>-8.755576069880616E-13</v>
       </c>
       <c r="X3">
-        <v>-1.284805228203867E-09</v>
+        <v>-1.28481979723904E-09</v>
       </c>
       <c r="Y3">
-        <v>1.284381250407088E-09</v>
+        <v>1.284368577538506E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -4941,25 +4941,25 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.3644696238932878</v>
+        <v>0.3644696238932874</v>
       </c>
       <c r="AH3">
-        <v>0.970009073765824</v>
+        <v>0.9700090737658233</v>
       </c>
       <c r="AI3">
-        <v>0.9697945808280084</v>
+        <v>0.9697945808280088</v>
       </c>
       <c r="AJ3">
-        <v>0.3644696238827592</v>
+        <v>0.3644696238827589</v>
       </c>
       <c r="AK3">
-        <v>0.9700090737589764</v>
+        <v>0.9700090737589758</v>
       </c>
       <c r="AL3">
-        <v>0.9697945808328791</v>
+        <v>0.9697945808328795</v>
       </c>
       <c r="AM3">
-        <v>0.03433039249144968</v>
+        <v>0.03433039249117172</v>
       </c>
       <c r="AN3">
         <v>-100.8284562175402</v>
@@ -4968,7 +4968,7 @@
         <v>100.8308801236691</v>
       </c>
       <c r="AP3">
-        <v>0.03433039061688672</v>
+        <v>0.03433039061658785</v>
       </c>
       <c r="AQ3">
         <v>-100.8284562173012</v>
@@ -5018,40 +5018,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>9.829500405227651E-10</v>
+        <v>9.829509022083883E-10</v>
       </c>
       <c r="O4">
-        <v>2.453586711391252E-10</v>
+        <v>2.453461125348992E-10</v>
       </c>
       <c r="P4">
-        <v>2.461068926571617E-10</v>
+        <v>2.461249407983708E-10</v>
       </c>
       <c r="Q4">
-        <v>-9.829565168432605E-10</v>
+        <v>-9.829504726302933E-10</v>
       </c>
       <c r="R4">
-        <v>-2.453584553227027E-10</v>
+        <v>-2.453585726904581E-10</v>
       </c>
       <c r="S4">
-        <v>-2.46102380614768E-10</v>
+        <v>-2.461167799579988E-10</v>
       </c>
       <c r="T4">
-        <v>8.764206178853519E-13</v>
+        <v>8.790108470854679E-13</v>
       </c>
       <c r="U4">
-        <v>1.284808082954004E-09</v>
+        <v>1.284828028296269E-09</v>
       </c>
       <c r="V4">
-        <v>-1.284365791969805E-09</v>
+        <v>-1.284362339020509E-09</v>
       </c>
       <c r="W4">
-        <v>-8.729715156537504E-13</v>
+        <v>-8.755576069880616E-13</v>
       </c>
       <c r="X4">
-        <v>-1.284806954678515E-09</v>
+        <v>-1.28481979723904E-09</v>
       </c>
       <c r="Y4">
-        <v>1.284366655215175E-09</v>
+        <v>1.284368577538506E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -5072,25 +5072,25 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.3644696238932878</v>
+        <v>0.3644696238932874</v>
       </c>
       <c r="AH4">
-        <v>0.970009073765824</v>
+        <v>0.9700090737658233</v>
       </c>
       <c r="AI4">
-        <v>0.9697945808280083</v>
+        <v>0.9697945808280088</v>
       </c>
       <c r="AJ4">
-        <v>0.3644696238827592</v>
+        <v>0.3644696238827589</v>
       </c>
       <c r="AK4">
-        <v>0.9700090737589764</v>
+        <v>0.9700090737589758</v>
       </c>
       <c r="AL4">
-        <v>0.9697945808328791</v>
+        <v>0.9697945808328795</v>
       </c>
       <c r="AM4">
-        <v>0.03433039249145395</v>
+        <v>0.03433039249117172</v>
       </c>
       <c r="AN4">
         <v>-100.8284562175402</v>
@@ -5099,7 +5099,7 @@
         <v>100.8308801236691</v>
       </c>
       <c r="AP4">
-        <v>0.03433039061688672</v>
+        <v>0.03433039061658785</v>
       </c>
       <c r="AQ4">
         <v>-100.8284562173012</v>
@@ -5296,40 +5296,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.948863939231875E-09</v>
+        <v>-2.948835449814025E-09</v>
       </c>
       <c r="O2">
-        <v>-7.361108608868004E-10</v>
+        <v>-7.361165135924331E-10</v>
       </c>
       <c r="P2">
-        <v>-7.38325857310328E-10</v>
+        <v>-7.383297019569905E-10</v>
       </c>
       <c r="Q2">
-        <v>2.948864364899041E-09</v>
+        <v>2.94883587961905E-09</v>
       </c>
       <c r="R2">
-        <v>7.36093887718208E-10</v>
+        <v>7.361139428704685E-10</v>
       </c>
       <c r="S2">
-        <v>7.383303694094561E-10</v>
+        <v>7.383378628540965E-10</v>
       </c>
       <c r="T2">
-        <v>-2.618910895279132E-12</v>
+        <v>-2.623210013192801E-12</v>
       </c>
       <c r="U2">
-        <v>-3.854459686969427E-09</v>
+        <v>-3.854403637069014E-09</v>
       </c>
       <c r="V2">
-        <v>3.853124448217782E-09</v>
+        <v>3.853095649531322E-09</v>
       </c>
       <c r="W2">
-        <v>2.629270291448903E-12</v>
+        <v>2.626663510766998E-12</v>
       </c>
       <c r="X2">
-        <v>3.854468781328352E-09</v>
+        <v>3.854414654785733E-09</v>
       </c>
       <c r="Y2">
-        <v>-3.853123584908041E-09</v>
+        <v>-3.853089410948957E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -5350,25 +5350,25 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.3644696238511731</v>
+        <v>0.3644696238511732</v>
       </c>
       <c r="AH2">
-        <v>0.9700090737384334</v>
+        <v>0.9700090737384329</v>
       </c>
       <c r="AI2">
-        <v>0.969794580847491</v>
+        <v>0.9697945808474911</v>
       </c>
       <c r="AJ2">
-        <v>0.3644696238827592</v>
+        <v>0.3644696238827589</v>
       </c>
       <c r="AK2">
-        <v>0.9700090737589764</v>
+        <v>0.9700090737589758</v>
       </c>
       <c r="AL2">
-        <v>0.9697945808328791</v>
+        <v>0.9697945808328795</v>
       </c>
       <c r="AM2">
-        <v>0.03433038499314061</v>
+        <v>0.03433038499288073</v>
       </c>
       <c r="AN2">
         <v>-100.8284562165842</v>
@@ -5377,7 +5377,7 @@
         <v>100.8308801221831</v>
       </c>
       <c r="AP2">
-        <v>0.03433039061688672</v>
+        <v>0.03433039061658785</v>
       </c>
       <c r="AQ2">
         <v>-100.8284562173012</v>
@@ -5427,40 +5427,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>9.829534893341949E-10</v>
+        <v>9.829509022083883E-10</v>
       </c>
       <c r="O3">
-        <v>2.453676972786625E-10</v>
+        <v>2.453461125348992E-10</v>
       </c>
       <c r="P3">
-        <v>2.461266672730184E-10</v>
+        <v>2.461249407983708E-10</v>
       </c>
       <c r="Q3">
-        <v>-9.829530597560996E-10</v>
+        <v>-9.829504726302933E-10</v>
       </c>
       <c r="R3">
-        <v>-2.453674814622398E-10</v>
+        <v>-2.453585726904581E-10</v>
       </c>
       <c r="S3">
-        <v>-2.461238817052723E-10</v>
+        <v>-2.461167799579988E-10</v>
       </c>
       <c r="T3">
-        <v>8.833285854094425E-13</v>
+        <v>8.790108470854679E-13</v>
       </c>
       <c r="U3">
-        <v>1.284806356479356E-09</v>
+        <v>1.284828028296269E-09</v>
       </c>
       <c r="V3">
-        <v>-1.284371363091113E-09</v>
+        <v>-1.284362339020509E-09</v>
       </c>
       <c r="W3">
-        <v>-8.798753453121851E-13</v>
+        <v>-8.755576069880616E-13</v>
       </c>
       <c r="X3">
-        <v>-1.284805228203867E-09</v>
+        <v>-1.28481979723904E-09</v>
       </c>
       <c r="Y3">
-        <v>1.284381250407088E-09</v>
+        <v>1.284368577538506E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -5481,25 +5481,25 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.3644696238932878</v>
+        <v>0.3644696238932874</v>
       </c>
       <c r="AH3">
-        <v>0.970009073765824</v>
+        <v>0.9700090737658233</v>
       </c>
       <c r="AI3">
-        <v>0.9697945808280084</v>
+        <v>0.9697945808280088</v>
       </c>
       <c r="AJ3">
-        <v>0.3644696238827592</v>
+        <v>0.3644696238827589</v>
       </c>
       <c r="AK3">
-        <v>0.9700090737589764</v>
+        <v>0.9700090737589758</v>
       </c>
       <c r="AL3">
-        <v>0.9697945808328791</v>
+        <v>0.9697945808328795</v>
       </c>
       <c r="AM3">
-        <v>0.03433039249144968</v>
+        <v>0.03433039249117172</v>
       </c>
       <c r="AN3">
         <v>-100.8284562175402</v>
@@ -5508,7 +5508,7 @@
         <v>100.8308801236691</v>
       </c>
       <c r="AP3">
-        <v>0.03433039061688672</v>
+        <v>0.03433039061658785</v>
       </c>
       <c r="AQ3">
         <v>-100.8284562173012</v>
@@ -5558,40 +5558,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>9.829500405227651E-10</v>
+        <v>9.829509022083883E-10</v>
       </c>
       <c r="O4">
-        <v>2.453586711391252E-10</v>
+        <v>2.453461125348992E-10</v>
       </c>
       <c r="P4">
-        <v>2.461068926571617E-10</v>
+        <v>2.461249407983708E-10</v>
       </c>
       <c r="Q4">
-        <v>-9.829565168432605E-10</v>
+        <v>-9.829504726302933E-10</v>
       </c>
       <c r="R4">
-        <v>-2.453584553227027E-10</v>
+        <v>-2.453585726904581E-10</v>
       </c>
       <c r="S4">
-        <v>-2.46102380614768E-10</v>
+        <v>-2.461167799579988E-10</v>
       </c>
       <c r="T4">
-        <v>8.764206178853519E-13</v>
+        <v>8.790108470854679E-13</v>
       </c>
       <c r="U4">
-        <v>1.284808082954004E-09</v>
+        <v>1.284828028296269E-09</v>
       </c>
       <c r="V4">
-        <v>-1.284365791969805E-09</v>
+        <v>-1.284362339020509E-09</v>
       </c>
       <c r="W4">
-        <v>-8.729715156537504E-13</v>
+        <v>-8.755576069880616E-13</v>
       </c>
       <c r="X4">
-        <v>-1.284806954678515E-09</v>
+        <v>-1.28481979723904E-09</v>
       </c>
       <c r="Y4">
-        <v>1.284366655215175E-09</v>
+        <v>1.284368577538506E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -5612,25 +5612,25 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.3644696238932878</v>
+        <v>0.3644696238932874</v>
       </c>
       <c r="AH4">
-        <v>0.970009073765824</v>
+        <v>0.9700090737658233</v>
       </c>
       <c r="AI4">
-        <v>0.9697945808280083</v>
+        <v>0.9697945808280088</v>
       </c>
       <c r="AJ4">
-        <v>0.3644696238827592</v>
+        <v>0.3644696238827589</v>
       </c>
       <c r="AK4">
-        <v>0.9700090737589764</v>
+        <v>0.9700090737589758</v>
       </c>
       <c r="AL4">
-        <v>0.9697945808328791</v>
+        <v>0.9697945808328795</v>
       </c>
       <c r="AM4">
-        <v>0.03433039249145395</v>
+        <v>0.03433039249117172</v>
       </c>
       <c r="AN4">
         <v>-100.8284562175402</v>
@@ -5639,7 +5639,7 @@
         <v>100.8308801236691</v>
       </c>
       <c r="AP4">
-        <v>0.03433039061688672</v>
+        <v>0.03433039061658785</v>
       </c>
       <c r="AQ4">
         <v>-100.8284562173012</v>
@@ -5836,40 +5836,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-3.139249241493579E-09</v>
+        <v>-3.139216599241307E-09</v>
       </c>
       <c r="O2">
-        <v>-1.400995387478714E-09</v>
+        <v>-1.400997002888638E-09</v>
       </c>
       <c r="P2">
-        <v>-1.686219796577501E-10</v>
+        <v>-1.686296422125013E-10</v>
       </c>
       <c r="Q2">
-        <v>3.139248476705073E-09</v>
+        <v>3.139228060746247E-09</v>
       </c>
       <c r="R2">
-        <v>1.400989016195619E-09</v>
+        <v>1.400995544245399E-09</v>
       </c>
       <c r="S2">
-        <v>1.686291663183064E-10</v>
+        <v>1.68641619959915E-10</v>
       </c>
       <c r="T2">
-        <v>1.422985183143338E-09</v>
+        <v>1.42298035450856E-09</v>
       </c>
       <c r="U2">
-        <v>-2.225727893405556E-09</v>
+        <v>-2.225701369933589E-09</v>
       </c>
       <c r="V2">
-        <v>2.937195445690233E-09</v>
+        <v>2.937177476460999E-09</v>
       </c>
       <c r="W2">
-        <v>-1.422977573267154E-09</v>
+        <v>-1.422975112174116E-09</v>
       </c>
       <c r="X2">
-        <v>2.225726515910573E-09</v>
+        <v>2.225693600839194E-09</v>
       </c>
       <c r="Y2">
-        <v>-2.937193288074692E-09</v>
+        <v>-2.937173880457994E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -5890,34 +5890,34 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.6185866318522062</v>
+        <v>0.6185866318522066</v>
       </c>
       <c r="AH2">
-        <v>0.9439982598637769</v>
+        <v>0.9439982598637768</v>
       </c>
       <c r="AI2">
-        <v>1.056026550193052</v>
+        <v>1.056026550193051</v>
       </c>
       <c r="AJ2">
-        <v>0.6185866318618189</v>
+        <v>0.6185866318618194</v>
       </c>
       <c r="AK2">
-        <v>0.9439982598799983</v>
+        <v>0.9439982598799979</v>
       </c>
       <c r="AL2">
         <v>1.056026550181367</v>
       </c>
       <c r="AM2">
-        <v>-10.95931300975977</v>
+        <v>-10.95931300975986</v>
       </c>
       <c r="AN2">
-        <v>-108.7637340183826</v>
+        <v>-108.7637340183825</v>
       </c>
       <c r="AO2">
         <v>106.7108886474994</v>
       </c>
       <c r="AP2">
-        <v>-10.95931300684882</v>
+        <v>-10.95931300684893</v>
       </c>
       <c r="AQ2">
         <v>-108.7637340185421</v>
@@ -5967,40 +5967,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.046424210019893E-09</v>
+        <v>1.046408595598724E-09</v>
       </c>
       <c r="O3">
-        <v>4.66984322064254E-10</v>
+        <v>4.669882167716458E-10</v>
       </c>
       <c r="P3">
-        <v>5.622553552651437E-11</v>
+        <v>5.621882482069242E-11</v>
       </c>
       <c r="Q3">
-        <v>-1.046420335503456E-09</v>
+        <v>-1.046398248338699E-09</v>
       </c>
       <c r="R3">
-        <v>-4.669892549867911E-10</v>
+        <v>-4.669952667032894E-10</v>
       </c>
       <c r="S3">
-        <v>-5.622170159225778E-11</v>
+        <v>-5.620205601332816E-11</v>
       </c>
       <c r="T3">
-        <v>-4.743189602826046E-10</v>
+        <v>-4.74326382918798E-10</v>
       </c>
       <c r="U3">
-        <v>7.419093789612969E-10</v>
+        <v>7.419104171798049E-10</v>
       </c>
       <c r="V3">
-        <v>-9.790736096173733E-10</v>
+        <v>-9.790599555505334E-10</v>
       </c>
       <c r="W3">
-        <v>4.743197023495281E-10</v>
+        <v>4.74325871581272E-10</v>
       </c>
       <c r="X3">
-        <v>-7.419065224685968E-10</v>
+        <v>-7.419068414933727E-10</v>
       </c>
       <c r="Y3">
-        <v>9.790695377280641E-10</v>
+        <v>9.790649899104749E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -6024,22 +6024,22 @@
         <v>0.6185866318650233</v>
       </c>
       <c r="AH3">
-        <v>0.9439982598854053</v>
+        <v>0.9439982598854049</v>
       </c>
       <c r="AI3">
         <v>1.056026550177472</v>
       </c>
       <c r="AJ3">
-        <v>0.6185866318618189</v>
+        <v>0.6185866318618194</v>
       </c>
       <c r="AK3">
-        <v>0.9439982598799983</v>
+        <v>0.9439982598799979</v>
       </c>
       <c r="AL3">
         <v>1.056026550181367</v>
       </c>
       <c r="AM3">
-        <v>-10.95931300587851</v>
+        <v>-10.95931300587862</v>
       </c>
       <c r="AN3">
         <v>-108.7637340185952</v>
@@ -6048,7 +6048,7 @@
         <v>106.7108886483352</v>
       </c>
       <c r="AP3">
-        <v>-10.95931300684882</v>
+        <v>-10.95931300684893</v>
       </c>
       <c r="AQ3">
         <v>-108.7637340185421</v>
@@ -6098,40 +6098,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.0464104746456E-09</v>
+        <v>1.046408595598724E-09</v>
       </c>
       <c r="O4">
-        <v>4.66984322064254E-10</v>
+        <v>4.669882167716458E-10</v>
       </c>
       <c r="P4">
-        <v>5.619582654236923E-11</v>
+        <v>5.621882482069242E-11</v>
       </c>
       <c r="Q4">
-        <v>-1.046399732442017E-09</v>
+        <v>-1.046398248338699E-09</v>
       </c>
       <c r="R4">
-        <v>-4.669934890050044E-10</v>
+        <v>-4.669952667032894E-10</v>
       </c>
       <c r="S4">
-        <v>-5.619199260811277E-11</v>
+        <v>-5.620205601332816E-11</v>
       </c>
       <c r="T4">
-        <v>-4.743282391077434E-10</v>
+        <v>-4.74326382918798E-10</v>
       </c>
       <c r="U4">
-        <v>7.419093789612969E-10</v>
+        <v>7.419104171798049E-10</v>
       </c>
       <c r="V4">
-        <v>-9.790616372072656E-10</v>
+        <v>-9.790599555505334E-10</v>
       </c>
       <c r="W4">
-        <v>4.743336205872361E-10</v>
+        <v>4.74325871581272E-10</v>
       </c>
       <c r="X4">
-        <v>-7.419050840811324E-10</v>
+        <v>-7.419068414933727E-10</v>
       </c>
       <c r="Y4">
-        <v>9.790575653179566E-10</v>
+        <v>9.790649899104749E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -6152,25 +6152,25 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.6185866318650231</v>
+        <v>0.6185866318650233</v>
       </c>
       <c r="AH4">
-        <v>0.9439982598854053</v>
+        <v>0.9439982598854049</v>
       </c>
       <c r="AI4">
         <v>1.056026550177472</v>
       </c>
       <c r="AJ4">
-        <v>0.6185866318618189</v>
+        <v>0.6185866318618194</v>
       </c>
       <c r="AK4">
-        <v>0.9439982598799983</v>
+        <v>0.9439982598799979</v>
       </c>
       <c r="AL4">
         <v>1.056026550181367</v>
       </c>
       <c r="AM4">
-        <v>-10.95931300587851</v>
+        <v>-10.95931300587862</v>
       </c>
       <c r="AN4">
         <v>-108.7637340185952</v>
@@ -6179,7 +6179,7 @@
         <v>106.7108886483352</v>
       </c>
       <c r="AP4">
-        <v>-10.95931300684882</v>
+        <v>-10.95931300684893</v>
       </c>
       <c r="AQ4">
         <v>-108.7637340185421</v>
@@ -6601,40 +6601,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-3.139249241493579E-09</v>
+        <v>-3.139216599241307E-09</v>
       </c>
       <c r="O2">
-        <v>-1.400995387478714E-09</v>
+        <v>-1.400997002888638E-09</v>
       </c>
       <c r="P2">
-        <v>-1.686219796577501E-10</v>
+        <v>-1.686296422125013E-10</v>
       </c>
       <c r="Q2">
-        <v>3.139248476705073E-09</v>
+        <v>3.139228060746247E-09</v>
       </c>
       <c r="R2">
-        <v>1.400989016195619E-09</v>
+        <v>1.400995544245399E-09</v>
       </c>
       <c r="S2">
-        <v>1.686291663183064E-10</v>
+        <v>1.68641619959915E-10</v>
       </c>
       <c r="T2">
-        <v>1.422985183143338E-09</v>
+        <v>1.42298035450856E-09</v>
       </c>
       <c r="U2">
-        <v>-2.225727893405556E-09</v>
+        <v>-2.225701369933589E-09</v>
       </c>
       <c r="V2">
-        <v>2.937195445690233E-09</v>
+        <v>2.937177476460999E-09</v>
       </c>
       <c r="W2">
-        <v>-1.422977573267154E-09</v>
+        <v>-1.422975112174116E-09</v>
       </c>
       <c r="X2">
-        <v>2.225726515910573E-09</v>
+        <v>2.225693600839194E-09</v>
       </c>
       <c r="Y2">
-        <v>-2.937193288074692E-09</v>
+        <v>-2.937173880457994E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -6655,34 +6655,34 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.6185866318522062</v>
+        <v>0.6185866318522066</v>
       </c>
       <c r="AH2">
-        <v>0.9439982598637769</v>
+        <v>0.9439982598637768</v>
       </c>
       <c r="AI2">
-        <v>1.056026550193052</v>
+        <v>1.056026550193051</v>
       </c>
       <c r="AJ2">
-        <v>0.6185866318618189</v>
+        <v>0.6185866318618194</v>
       </c>
       <c r="AK2">
-        <v>0.9439982598799983</v>
+        <v>0.9439982598799979</v>
       </c>
       <c r="AL2">
         <v>1.056026550181367</v>
       </c>
       <c r="AM2">
-        <v>-10.95931300975977</v>
+        <v>-10.95931300975986</v>
       </c>
       <c r="AN2">
-        <v>-108.7637340183826</v>
+        <v>-108.7637340183825</v>
       </c>
       <c r="AO2">
         <v>106.7108886474994</v>
       </c>
       <c r="AP2">
-        <v>-10.95931300684882</v>
+        <v>-10.95931300684893</v>
       </c>
       <c r="AQ2">
         <v>-108.7637340185421</v>
@@ -6732,40 +6732,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.046424210019893E-09</v>
+        <v>1.046408595598724E-09</v>
       </c>
       <c r="O3">
-        <v>4.66984322064254E-10</v>
+        <v>4.669882167716458E-10</v>
       </c>
       <c r="P3">
-        <v>5.622553552651437E-11</v>
+        <v>5.621882482069242E-11</v>
       </c>
       <c r="Q3">
-        <v>-1.046420335503456E-09</v>
+        <v>-1.046398248338699E-09</v>
       </c>
       <c r="R3">
-        <v>-4.669892549867911E-10</v>
+        <v>-4.669952667032894E-10</v>
       </c>
       <c r="S3">
-        <v>-5.622170159225778E-11</v>
+        <v>-5.620205601332816E-11</v>
       </c>
       <c r="T3">
-        <v>-4.743189602826046E-10</v>
+        <v>-4.74326382918798E-10</v>
       </c>
       <c r="U3">
-        <v>7.419093789612969E-10</v>
+        <v>7.419104171798049E-10</v>
       </c>
       <c r="V3">
-        <v>-9.790736096173733E-10</v>
+        <v>-9.790599555505334E-10</v>
       </c>
       <c r="W3">
-        <v>4.743197023495281E-10</v>
+        <v>4.74325871581272E-10</v>
       </c>
       <c r="X3">
-        <v>-7.419065224685968E-10</v>
+        <v>-7.419068414933727E-10</v>
       </c>
       <c r="Y3">
-        <v>9.790695377280641E-10</v>
+        <v>9.790649899104749E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -6789,22 +6789,22 @@
         <v>0.6185866318650233</v>
       </c>
       <c r="AH3">
-        <v>0.9439982598854053</v>
+        <v>0.9439982598854049</v>
       </c>
       <c r="AI3">
         <v>1.056026550177472</v>
       </c>
       <c r="AJ3">
-        <v>0.6185866318618189</v>
+        <v>0.6185866318618194</v>
       </c>
       <c r="AK3">
-        <v>0.9439982598799983</v>
+        <v>0.9439982598799979</v>
       </c>
       <c r="AL3">
         <v>1.056026550181367</v>
       </c>
       <c r="AM3">
-        <v>-10.95931300587851</v>
+        <v>-10.95931300587862</v>
       </c>
       <c r="AN3">
         <v>-108.7637340185952</v>
@@ -6813,7 +6813,7 @@
         <v>106.7108886483352</v>
       </c>
       <c r="AP3">
-        <v>-10.95931300684882</v>
+        <v>-10.95931300684893</v>
       </c>
       <c r="AQ3">
         <v>-108.7637340185421</v>
@@ -6863,40 +6863,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.0464104746456E-09</v>
+        <v>1.046408595598724E-09</v>
       </c>
       <c r="O4">
-        <v>4.66984322064254E-10</v>
+        <v>4.669882167716458E-10</v>
       </c>
       <c r="P4">
-        <v>5.619582654236923E-11</v>
+        <v>5.621882482069242E-11</v>
       </c>
       <c r="Q4">
-        <v>-1.046399732442017E-09</v>
+        <v>-1.046398248338699E-09</v>
       </c>
       <c r="R4">
-        <v>-4.669934890050044E-10</v>
+        <v>-4.669952667032894E-10</v>
       </c>
       <c r="S4">
-        <v>-5.619199260811277E-11</v>
+        <v>-5.620205601332816E-11</v>
       </c>
       <c r="T4">
-        <v>-4.743282391077434E-10</v>
+        <v>-4.74326382918798E-10</v>
       </c>
       <c r="U4">
-        <v>7.419093789612969E-10</v>
+        <v>7.419104171798049E-10</v>
       </c>
       <c r="V4">
-        <v>-9.790616372072656E-10</v>
+        <v>-9.790599555505334E-10</v>
       </c>
       <c r="W4">
-        <v>4.743336205872361E-10</v>
+        <v>4.74325871581272E-10</v>
       </c>
       <c r="X4">
-        <v>-7.419050840811324E-10</v>
+        <v>-7.419068414933727E-10</v>
       </c>
       <c r="Y4">
-        <v>9.790575653179566E-10</v>
+        <v>9.790649899104749E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -6917,25 +6917,25 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.6185866318650231</v>
+        <v>0.6185866318650233</v>
       </c>
       <c r="AH4">
-        <v>0.9439982598854053</v>
+        <v>0.9439982598854049</v>
       </c>
       <c r="AI4">
         <v>1.056026550177472</v>
       </c>
       <c r="AJ4">
-        <v>0.6185866318618189</v>
+        <v>0.6185866318618194</v>
       </c>
       <c r="AK4">
-        <v>0.9439982598799983</v>
+        <v>0.9439982598799979</v>
       </c>
       <c r="AL4">
         <v>1.056026550181367</v>
       </c>
       <c r="AM4">
-        <v>-10.95931300587851</v>
+        <v>-10.95931300587862</v>
       </c>
       <c r="AN4">
         <v>-108.7637340185952</v>
@@ -6944,7 +6944,7 @@
         <v>106.7108886483352</v>
       </c>
       <c r="AP4">
-        <v>-10.95931300684882</v>
+        <v>-10.95931300684893</v>
       </c>
       <c r="AQ4">
         <v>-108.7637340185421</v>
@@ -7141,40 +7141,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.436062641365466E-09</v>
+        <v>-2.436072049224973E-09</v>
       </c>
       <c r="O2">
-        <v>-6.079245531822523E-10</v>
+        <v>-6.079244482746464E-10</v>
       </c>
       <c r="P2">
-        <v>-6.100898731686337E-10</v>
+        <v>-6.10098679685458E-10</v>
       </c>
       <c r="Q2">
-        <v>2.436064210014149E-09</v>
+        <v>2.436073617873659E-09</v>
       </c>
       <c r="R2">
-        <v>6.079196663082444E-10</v>
+        <v>6.079313867782417E-10</v>
       </c>
       <c r="S2">
-        <v>6.100919241635188E-10</v>
+        <v>6.101007306803449E-10</v>
       </c>
       <c r="T2">
-        <v>-2.481065582971287E-12</v>
+        <v>-2.483424347957148E-12</v>
       </c>
       <c r="U2">
-        <v>-3.186857908134008E-09</v>
+        <v>-3.186846233225409E-09</v>
       </c>
       <c r="V2">
-        <v>3.185578342485843E-09</v>
+        <v>3.185602169086553E-09</v>
       </c>
       <c r="W2">
-        <v>2.481066889241052E-12</v>
+        <v>2.483425654227785E-12</v>
       </c>
       <c r="X2">
-        <v>3.186854589461792E-09</v>
+        <v>3.186849159956603E-09</v>
       </c>
       <c r="Y2">
-        <v>-3.185577950365134E-09</v>
+        <v>-3.185601776965843E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -7195,25 +7195,25 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.3310660019364458</v>
+        <v>0.3310660019364457</v>
       </c>
       <c r="AH2">
-        <v>0.8818141464759021</v>
+        <v>0.8818141464759015</v>
       </c>
       <c r="AI2">
-        <v>0.8815929672376953</v>
+        <v>0.8815929672376954</v>
       </c>
       <c r="AJ2">
         <v>0.3310660019915774</v>
       </c>
       <c r="AK2">
-        <v>0.881814146497056</v>
+        <v>0.8818141464970555</v>
       </c>
       <c r="AL2">
         <v>0.881592967226888</v>
       </c>
       <c r="AM2">
-        <v>0.03897125580992354</v>
+        <v>0.03897125581007174</v>
       </c>
       <c r="AN2">
         <v>-100.8196771664425</v>
@@ -7222,13 +7222,13 @@
         <v>100.8224244169423</v>
       </c>
       <c r="AP2">
-        <v>0.03897126143524871</v>
+        <v>0.03897126143538643</v>
       </c>
       <c r="AQ2">
-        <v>-100.8196771680026</v>
+        <v>-100.8196771680027</v>
       </c>
       <c r="AR2">
-        <v>100.8224244188998</v>
+        <v>100.8224244188999</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -7272,40 +7272,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.120224485230411E-10</v>
+        <v>8.120224501230653E-10</v>
       </c>
       <c r="O3">
-        <v>2.026443137568246E-10</v>
+        <v>2.026535907391376E-10</v>
       </c>
       <c r="P3">
-        <v>2.033640752228862E-10</v>
+        <v>2.03359189314203E-10</v>
       </c>
       <c r="Q3">
-        <v>-8.120271532077597E-10</v>
+        <v>-8.120177453482497E-10</v>
       </c>
       <c r="R3">
-        <v>-2.026409950134519E-10</v>
+        <v>-2.026515393010067E-10</v>
       </c>
       <c r="S3">
-        <v>-2.033620243180967E-10</v>
+        <v>-2.033571384094136E-10</v>
       </c>
       <c r="T3">
-        <v>8.275457819091896E-13</v>
+        <v>8.251934170267234E-13</v>
       </c>
       <c r="U3">
-        <v>1.06227834719343E-09</v>
+        <v>1.062271258322186E-09</v>
       </c>
       <c r="V3">
-        <v>-1.061863549255717E-09</v>
+        <v>-1.061860231590289E-09</v>
       </c>
       <c r="W3">
-        <v>-8.27548955336164E-13</v>
+        <v>-8.251901903572385E-13</v>
       </c>
       <c r="X3">
-        <v>-1.062283234162142E-09</v>
+        <v>-1.062271650376345E-09</v>
       </c>
       <c r="Y3">
-        <v>1.061863941323186E-09</v>
+        <v>1.061860623657758E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -7326,25 +7326,25 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.331066002009955</v>
+        <v>0.3310660020099549</v>
       </c>
       <c r="AH3">
-        <v>0.8818141465041071</v>
+        <v>0.8818141465041068</v>
       </c>
       <c r="AI3">
-        <v>0.8815929672232857</v>
+        <v>0.8815929672232854</v>
       </c>
       <c r="AJ3">
         <v>0.3310660019915774</v>
       </c>
       <c r="AK3">
-        <v>0.881814146497056</v>
+        <v>0.8818141464970555</v>
       </c>
       <c r="AL3">
         <v>0.881592967226888</v>
       </c>
       <c r="AM3">
-        <v>0.0389712633104158</v>
+        <v>0.03897126331050308</v>
       </c>
       <c r="AN3">
         <v>-100.8196771685227</v>
@@ -7353,13 +7353,13 @@
         <v>100.8224244195523</v>
       </c>
       <c r="AP3">
-        <v>0.03897126143524871</v>
+        <v>0.03897126143538643</v>
       </c>
       <c r="AQ3">
-        <v>-100.8196771680026</v>
+        <v>-100.8196771680027</v>
       </c>
       <c r="AR3">
-        <v>100.8224244188998</v>
+        <v>100.8224244188999</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -7403,40 +7403,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.120193120365294E-10</v>
+        <v>8.120224501230653E-10</v>
       </c>
       <c r="O4">
-        <v>2.026474502433363E-10</v>
+        <v>2.026535907391376E-10</v>
       </c>
       <c r="P4">
-        <v>2.033658246450585E-10</v>
+        <v>2.03359189314203E-10</v>
       </c>
       <c r="Q4">
-        <v>-8.120240167212483E-10</v>
+        <v>-8.120177453482497E-10</v>
       </c>
       <c r="R4">
-        <v>-2.026482343537024E-10</v>
+        <v>-2.026515393010067E-10</v>
       </c>
       <c r="S4">
-        <v>-2.033637737402692E-10</v>
+        <v>-2.033571384094136E-10</v>
       </c>
       <c r="T4">
-        <v>8.275436485433257E-13</v>
+        <v>8.251934170267234E-13</v>
       </c>
       <c r="U4">
-        <v>1.062294758608386E-09</v>
+        <v>1.062271258322186E-09</v>
       </c>
       <c r="V4">
-        <v>-1.061850459772921E-09</v>
+        <v>-1.061860231590289E-09</v>
       </c>
       <c r="W4">
-        <v>-8.275468219703959E-13</v>
+        <v>-8.251901903572385E-13</v>
       </c>
       <c r="X4">
-        <v>-1.06229886145547E-09</v>
+        <v>-1.062271650376345E-09</v>
       </c>
       <c r="Y4">
-        <v>1.06185085184039E-09</v>
+        <v>1.061860623657758E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -7457,25 +7457,25 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.331066002009955</v>
+        <v>0.3310660020099549</v>
       </c>
       <c r="AH4">
-        <v>0.8818141465041072</v>
+        <v>0.8818141465041068</v>
       </c>
       <c r="AI4">
-        <v>0.8815929672232857</v>
+        <v>0.8815929672232854</v>
       </c>
       <c r="AJ4">
         <v>0.3310660019915774</v>
       </c>
       <c r="AK4">
-        <v>0.881814146497056</v>
+        <v>0.8818141464970555</v>
       </c>
       <c r="AL4">
         <v>0.881592967226888</v>
       </c>
       <c r="AM4">
-        <v>0.03897126331041629</v>
+        <v>0.03897126331050308</v>
       </c>
       <c r="AN4">
         <v>-100.8196771685227</v>
@@ -7484,13 +7484,13 @@
         <v>100.8224244195523</v>
       </c>
       <c r="AP4">
-        <v>0.03897126143524871</v>
+        <v>0.03897126143538643</v>
       </c>
       <c r="AQ4">
-        <v>-100.8196771680026</v>
+        <v>-100.8196771680027</v>
       </c>
       <c r="AR4">
-        <v>100.8224244188998</v>
+        <v>100.8224244188999</v>
       </c>
     </row>
   </sheetData>
@@ -7681,40 +7681,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.436062641365466E-09</v>
+        <v>-2.436072049224973E-09</v>
       </c>
       <c r="O2">
-        <v>-6.079245531822523E-10</v>
+        <v>-6.079244482746464E-10</v>
       </c>
       <c r="P2">
-        <v>-6.100898731686337E-10</v>
+        <v>-6.10098679685458E-10</v>
       </c>
       <c r="Q2">
-        <v>2.436064210014149E-09</v>
+        <v>2.436073617873659E-09</v>
       </c>
       <c r="R2">
-        <v>6.079196663082444E-10</v>
+        <v>6.079313867782417E-10</v>
       </c>
       <c r="S2">
-        <v>6.100919241635188E-10</v>
+        <v>6.101007306803449E-10</v>
       </c>
       <c r="T2">
-        <v>-2.481065582971287E-12</v>
+        <v>-2.483424347957148E-12</v>
       </c>
       <c r="U2">
-        <v>-3.186857908134008E-09</v>
+        <v>-3.186846233225409E-09</v>
       </c>
       <c r="V2">
-        <v>3.185578342485843E-09</v>
+        <v>3.185602169086553E-09</v>
       </c>
       <c r="W2">
-        <v>2.481066889241052E-12</v>
+        <v>2.483425654227785E-12</v>
       </c>
       <c r="X2">
-        <v>3.186854589461792E-09</v>
+        <v>3.186849159956603E-09</v>
       </c>
       <c r="Y2">
-        <v>-3.185577950365134E-09</v>
+        <v>-3.185601776965843E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -7735,25 +7735,25 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.3310660019364458</v>
+        <v>0.3310660019364457</v>
       </c>
       <c r="AH2">
-        <v>0.8818141464759021</v>
+        <v>0.8818141464759015</v>
       </c>
       <c r="AI2">
-        <v>0.8815929672376953</v>
+        <v>0.8815929672376954</v>
       </c>
       <c r="AJ2">
         <v>0.3310660019915774</v>
       </c>
       <c r="AK2">
-        <v>0.881814146497056</v>
+        <v>0.8818141464970555</v>
       </c>
       <c r="AL2">
         <v>0.881592967226888</v>
       </c>
       <c r="AM2">
-        <v>0.03897125580992354</v>
+        <v>0.03897125581007174</v>
       </c>
       <c r="AN2">
         <v>-100.8196771664425</v>
@@ -7762,13 +7762,13 @@
         <v>100.8224244169423</v>
       </c>
       <c r="AP2">
-        <v>0.03897126143524871</v>
+        <v>0.03897126143538643</v>
       </c>
       <c r="AQ2">
-        <v>-100.8196771680026</v>
+        <v>-100.8196771680027</v>
       </c>
       <c r="AR2">
-        <v>100.8224244188998</v>
+        <v>100.8224244188999</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -7812,40 +7812,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.120224485230411E-10</v>
+        <v>8.120224501230653E-10</v>
       </c>
       <c r="O3">
-        <v>2.026443137568246E-10</v>
+        <v>2.026535907391376E-10</v>
       </c>
       <c r="P3">
-        <v>2.033640752228862E-10</v>
+        <v>2.03359189314203E-10</v>
       </c>
       <c r="Q3">
-        <v>-8.120271532077597E-10</v>
+        <v>-8.120177453482497E-10</v>
       </c>
       <c r="R3">
-        <v>-2.026409950134519E-10</v>
+        <v>-2.026515393010067E-10</v>
       </c>
       <c r="S3">
-        <v>-2.033620243180967E-10</v>
+        <v>-2.033571384094136E-10</v>
       </c>
       <c r="T3">
-        <v>8.275457819091896E-13</v>
+        <v>8.251934170267234E-13</v>
       </c>
       <c r="U3">
-        <v>1.06227834719343E-09</v>
+        <v>1.062271258322186E-09</v>
       </c>
       <c r="V3">
-        <v>-1.061863549255717E-09</v>
+        <v>-1.061860231590289E-09</v>
       </c>
       <c r="W3">
-        <v>-8.27548955336164E-13</v>
+        <v>-8.251901903572385E-13</v>
       </c>
       <c r="X3">
-        <v>-1.062283234162142E-09</v>
+        <v>-1.062271650376345E-09</v>
       </c>
       <c r="Y3">
-        <v>1.061863941323186E-09</v>
+        <v>1.061860623657758E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -7866,25 +7866,25 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.331066002009955</v>
+        <v>0.3310660020099549</v>
       </c>
       <c r="AH3">
-        <v>0.8818141465041071</v>
+        <v>0.8818141465041068</v>
       </c>
       <c r="AI3">
-        <v>0.8815929672232857</v>
+        <v>0.8815929672232854</v>
       </c>
       <c r="AJ3">
         <v>0.3310660019915774</v>
       </c>
       <c r="AK3">
-        <v>0.881814146497056</v>
+        <v>0.8818141464970555</v>
       </c>
       <c r="AL3">
         <v>0.881592967226888</v>
       </c>
       <c r="AM3">
-        <v>0.0389712633104158</v>
+        <v>0.03897126331050308</v>
       </c>
       <c r="AN3">
         <v>-100.8196771685227</v>
@@ -7893,13 +7893,13 @@
         <v>100.8224244195523</v>
       </c>
       <c r="AP3">
-        <v>0.03897126143524871</v>
+        <v>0.03897126143538643</v>
       </c>
       <c r="AQ3">
-        <v>-100.8196771680026</v>
+        <v>-100.8196771680027</v>
       </c>
       <c r="AR3">
-        <v>100.8224244188998</v>
+        <v>100.8224244188999</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -7943,40 +7943,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.120193120365294E-10</v>
+        <v>8.120224501230653E-10</v>
       </c>
       <c r="O4">
-        <v>2.026474502433363E-10</v>
+        <v>2.026535907391376E-10</v>
       </c>
       <c r="P4">
-        <v>2.033658246450585E-10</v>
+        <v>2.03359189314203E-10</v>
       </c>
       <c r="Q4">
-        <v>-8.120240167212483E-10</v>
+        <v>-8.120177453482497E-10</v>
       </c>
       <c r="R4">
-        <v>-2.026482343537024E-10</v>
+        <v>-2.026515393010067E-10</v>
       </c>
       <c r="S4">
-        <v>-2.033637737402692E-10</v>
+        <v>-2.033571384094136E-10</v>
       </c>
       <c r="T4">
-        <v>8.275436485433257E-13</v>
+        <v>8.251934170267234E-13</v>
       </c>
       <c r="U4">
-        <v>1.062294758608386E-09</v>
+        <v>1.062271258322186E-09</v>
       </c>
       <c r="V4">
-        <v>-1.061850459772921E-09</v>
+        <v>-1.061860231590289E-09</v>
       </c>
       <c r="W4">
-        <v>-8.275468219703959E-13</v>
+        <v>-8.251901903572385E-13</v>
       </c>
       <c r="X4">
-        <v>-1.06229886145547E-09</v>
+        <v>-1.062271650376345E-09</v>
       </c>
       <c r="Y4">
-        <v>1.06185085184039E-09</v>
+        <v>1.061860623657758E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -7997,25 +7997,25 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.331066002009955</v>
+        <v>0.3310660020099549</v>
       </c>
       <c r="AH4">
-        <v>0.8818141465041072</v>
+        <v>0.8818141465041068</v>
       </c>
       <c r="AI4">
-        <v>0.8815929672232857</v>
+        <v>0.8815929672232854</v>
       </c>
       <c r="AJ4">
         <v>0.3310660019915774</v>
       </c>
       <c r="AK4">
-        <v>0.881814146497056</v>
+        <v>0.8818141464970555</v>
       </c>
       <c r="AL4">
         <v>0.881592967226888</v>
       </c>
       <c r="AM4">
-        <v>0.03897126331041629</v>
+        <v>0.03897126331050308</v>
       </c>
       <c r="AN4">
         <v>-100.8196771685227</v>
@@ -8024,13 +8024,13 @@
         <v>100.8224244195523</v>
       </c>
       <c r="AP4">
-        <v>0.03897126143524871</v>
+        <v>0.03897126143538643</v>
       </c>
       <c r="AQ4">
-        <v>-100.8196771680026</v>
+        <v>-100.8196771680027</v>
       </c>
       <c r="AR4">
-        <v>100.8224244188998</v>
+        <v>100.8224244188999</v>
       </c>
     </row>
   </sheetData>
@@ -8221,40 +8221,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.624673671781451E-09</v>
+        <v>-2.62468137982547E-09</v>
       </c>
       <c r="O2">
-        <v>-1.14198504053123E-09</v>
+        <v>-1.141986467159374E-09</v>
       </c>
       <c r="P2">
-        <v>-1.703427595871373E-10</v>
+        <v>-1.703471650839633E-10</v>
       </c>
       <c r="Q2">
-        <v>2.62467562045374E-09</v>
+        <v>2.624683535097292E-09</v>
       </c>
       <c r="R2">
-        <v>1.141982984598483E-09</v>
+        <v>1.14198550202524E-09</v>
       </c>
       <c r="S2">
-        <v>1.70342130282533E-10</v>
+        <v>1.703449931880913E-10</v>
       </c>
       <c r="T2">
-        <v>1.121953767199705E-09</v>
+        <v>1.121951005046573E-09</v>
       </c>
       <c r="U2">
-        <v>-1.951308007410817E-09</v>
+        <v>-1.951310745630302E-09</v>
       </c>
       <c r="V2">
-        <v>2.512261368813236E-09</v>
+        <v>2.512276572448943E-09</v>
       </c>
       <c r="W2">
-        <v>-1.12195381476152E-09</v>
+        <v>-1.121953376144559E-09</v>
       </c>
       <c r="X2">
-        <v>1.95130333884967E-09</v>
+        <v>1.951311060339427E-09</v>
       </c>
       <c r="Y2">
-        <v>-2.512259196834499E-09</v>
+        <v>-2.512277201774852E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -8275,34 +8275,34 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.5411436570099365</v>
+        <v>0.5411436570099363</v>
       </c>
       <c r="AH2">
-        <v>0.8572501491769242</v>
+        <v>0.8572501491769238</v>
       </c>
       <c r="AI2">
         <v>0.9547462544936437</v>
       </c>
       <c r="AJ2">
-        <v>0.5411436570370807</v>
+        <v>0.5411436570370806</v>
       </c>
       <c r="AK2">
-        <v>0.8572501491969717</v>
+        <v>0.8572501491969715</v>
       </c>
       <c r="AL2">
         <v>0.9547462544833361</v>
       </c>
       <c r="AM2">
-        <v>-10.86424712076569</v>
+        <v>-10.86424712076563</v>
       </c>
       <c r="AN2">
-        <v>-108.0574514187701</v>
+        <v>-108.0574514187702</v>
       </c>
       <c r="AO2">
-        <v>106.1597915285524</v>
+        <v>106.1597915285525</v>
       </c>
       <c r="AP2">
-        <v>-10.86424711684952</v>
+        <v>-10.86424711684946</v>
       </c>
       <c r="AQ2">
         <v>-108.0574514195154</v>
@@ -8352,40 +8352,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.748925802035608E-10</v>
+        <v>8.748959081686472E-10</v>
       </c>
       <c r="O3">
-        <v>3.806587432023416E-10</v>
+        <v>3.806668838316532E-10</v>
       </c>
       <c r="P3">
-        <v>5.678139703645407E-11</v>
+        <v>5.678311236712289E-11</v>
       </c>
       <c r="Q3">
-        <v>-8.748908732919818E-10</v>
+        <v>-8.748942362330544E-10</v>
       </c>
       <c r="R3">
-        <v>-3.806585752817894E-10</v>
+        <v>-3.80666590298707E-10</v>
       </c>
       <c r="S3">
-        <v>-5.678311236133549E-11</v>
+        <v>-5.67852843092938E-11</v>
       </c>
       <c r="T3">
-        <v>-3.739865893970452E-10</v>
+        <v>-3.739862493008063E-10</v>
       </c>
       <c r="U3">
-        <v>6.50426994079234E-10</v>
+        <v>6.50433950024316E-10</v>
       </c>
       <c r="V3">
-        <v>-8.374234570807912E-10</v>
+        <v>-8.374253143504046E-10</v>
       </c>
       <c r="W3">
-        <v>3.739852830124136E-10</v>
+        <v>3.739813606666233E-10</v>
       </c>
       <c r="X3">
-        <v>-6.504281166012063E-10</v>
+        <v>-6.50429774597672E-10</v>
       </c>
       <c r="Y3">
-        <v>8.374253143538245E-10</v>
+        <v>8.374246849971349E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -8406,34 +8406,34 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.5411436570461288</v>
+        <v>0.5411436570461289</v>
       </c>
       <c r="AH3">
         <v>0.8572501492036539</v>
       </c>
       <c r="AI3">
-        <v>0.9547462544799002</v>
+        <v>0.9547462544799001</v>
       </c>
       <c r="AJ3">
-        <v>0.5411436570370807</v>
+        <v>0.5411436570370806</v>
       </c>
       <c r="AK3">
-        <v>0.8572501491969717</v>
+        <v>0.8572501491969715</v>
       </c>
       <c r="AL3">
         <v>0.9547462544833361</v>
       </c>
       <c r="AM3">
-        <v>-10.86424711554411</v>
+        <v>-10.86424711554406</v>
       </c>
       <c r="AN3">
-        <v>-108.0574514197637</v>
+        <v>-108.0574514197638</v>
       </c>
       <c r="AO3">
         <v>106.1597915301922</v>
       </c>
       <c r="AP3">
-        <v>-10.86424711684952</v>
+        <v>-10.86424711684946</v>
       </c>
       <c r="AQ3">
         <v>-108.0574514195154</v>
@@ -8483,40 +8483,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.748870621990083E-10</v>
+        <v>8.748959081686472E-10</v>
       </c>
       <c r="O4">
-        <v>3.806651213739787E-10</v>
+        <v>3.806668838316532E-10</v>
       </c>
       <c r="P4">
-        <v>5.677762089631733E-11</v>
+        <v>5.678311236712289E-11</v>
       </c>
       <c r="Q4">
-        <v>-8.748858384384665E-10</v>
+        <v>-8.748942362330544E-10</v>
       </c>
       <c r="R4">
-        <v>-3.80667177353025E-10</v>
+        <v>-3.80666590298707E-10</v>
       </c>
       <c r="S4">
-        <v>-5.677933622119888E-11</v>
+        <v>-5.67852843092938E-11</v>
       </c>
       <c r="T4">
-        <v>-3.739881405217293E-10</v>
+        <v>-3.739862493008063E-10</v>
       </c>
       <c r="U4">
-        <v>6.504334568556135E-10</v>
+        <v>6.50433950024316E-10</v>
       </c>
       <c r="V4">
-        <v>-8.374104253930436E-10</v>
+        <v>-8.374253143504046E-10</v>
       </c>
       <c r="W4">
-        <v>3.739843167103398E-10</v>
+        <v>3.739813606666233E-10</v>
       </c>
       <c r="X4">
-        <v>-6.504381254441202E-10</v>
+        <v>-6.50429774597672E-10</v>
       </c>
       <c r="Y4">
-        <v>8.374122826660767E-10</v>
+        <v>8.374246849971349E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -8537,34 +8537,34 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.5411436570461287</v>
+        <v>0.5411436570461289</v>
       </c>
       <c r="AH4">
-        <v>0.8572501492036542</v>
+        <v>0.8572501492036539</v>
       </c>
       <c r="AI4">
-        <v>0.9547462544799004</v>
+        <v>0.9547462544799001</v>
       </c>
       <c r="AJ4">
-        <v>0.5411436570370807</v>
+        <v>0.5411436570370806</v>
       </c>
       <c r="AK4">
-        <v>0.8572501491969717</v>
+        <v>0.8572501491969715</v>
       </c>
       <c r="AL4">
         <v>0.9547462544833361</v>
       </c>
       <c r="AM4">
-        <v>-10.86424711554411</v>
+        <v>-10.86424711554406</v>
       </c>
       <c r="AN4">
-        <v>-108.0574514197637</v>
+        <v>-108.0574514197638</v>
       </c>
       <c r="AO4">
         <v>106.1597915301922</v>
       </c>
       <c r="AP4">
-        <v>-10.86424711684952</v>
+        <v>-10.86424711684946</v>
       </c>
       <c r="AQ4">
         <v>-108.0574514195154</v>
@@ -8761,40 +8761,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.624673671781451E-09</v>
+        <v>-2.62468137982547E-09</v>
       </c>
       <c r="O2">
-        <v>-1.14198504053123E-09</v>
+        <v>-1.141986467159374E-09</v>
       </c>
       <c r="P2">
-        <v>-1.703427595871373E-10</v>
+        <v>-1.703471650839633E-10</v>
       </c>
       <c r="Q2">
-        <v>2.62467562045374E-09</v>
+        <v>2.624683535097292E-09</v>
       </c>
       <c r="R2">
-        <v>1.141982984598483E-09</v>
+        <v>1.14198550202524E-09</v>
       </c>
       <c r="S2">
-        <v>1.70342130282533E-10</v>
+        <v>1.703449931880913E-10</v>
       </c>
       <c r="T2">
-        <v>1.121953767199705E-09</v>
+        <v>1.121951005046573E-09</v>
       </c>
       <c r="U2">
-        <v>-1.951308007410817E-09</v>
+        <v>-1.951310745630302E-09</v>
       </c>
       <c r="V2">
-        <v>2.512261368813236E-09</v>
+        <v>2.512276572448943E-09</v>
       </c>
       <c r="W2">
-        <v>-1.12195381476152E-09</v>
+        <v>-1.121953376144559E-09</v>
       </c>
       <c r="X2">
-        <v>1.95130333884967E-09</v>
+        <v>1.951311060339427E-09</v>
       </c>
       <c r="Y2">
-        <v>-2.512259196834499E-09</v>
+        <v>-2.512277201774852E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -8815,34 +8815,34 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.5411436570099365</v>
+        <v>0.5411436570099363</v>
       </c>
       <c r="AH2">
-        <v>0.8572501491769242</v>
+        <v>0.8572501491769238</v>
       </c>
       <c r="AI2">
         <v>0.9547462544936437</v>
       </c>
       <c r="AJ2">
-        <v>0.5411436570370807</v>
+        <v>0.5411436570370806</v>
       </c>
       <c r="AK2">
-        <v>0.8572501491969717</v>
+        <v>0.8572501491969715</v>
       </c>
       <c r="AL2">
         <v>0.9547462544833361</v>
       </c>
       <c r="AM2">
-        <v>-10.86424712076569</v>
+        <v>-10.86424712076563</v>
       </c>
       <c r="AN2">
-        <v>-108.0574514187701</v>
+        <v>-108.0574514187702</v>
       </c>
       <c r="AO2">
-        <v>106.1597915285524</v>
+        <v>106.1597915285525</v>
       </c>
       <c r="AP2">
-        <v>-10.86424711684952</v>
+        <v>-10.86424711684946</v>
       </c>
       <c r="AQ2">
         <v>-108.0574514195154</v>
@@ -8892,40 +8892,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.748925802035608E-10</v>
+        <v>8.748959081686472E-10</v>
       </c>
       <c r="O3">
-        <v>3.806587432023416E-10</v>
+        <v>3.806668838316532E-10</v>
       </c>
       <c r="P3">
-        <v>5.678139703645407E-11</v>
+        <v>5.678311236712289E-11</v>
       </c>
       <c r="Q3">
-        <v>-8.748908732919818E-10</v>
+        <v>-8.748942362330544E-10</v>
       </c>
       <c r="R3">
-        <v>-3.806585752817894E-10</v>
+        <v>-3.80666590298707E-10</v>
       </c>
       <c r="S3">
-        <v>-5.678311236133549E-11</v>
+        <v>-5.67852843092938E-11</v>
       </c>
       <c r="T3">
-        <v>-3.739865893970452E-10</v>
+        <v>-3.739862493008063E-10</v>
       </c>
       <c r="U3">
-        <v>6.50426994079234E-10</v>
+        <v>6.50433950024316E-10</v>
       </c>
       <c r="V3">
-        <v>-8.374234570807912E-10</v>
+        <v>-8.374253143504046E-10</v>
       </c>
       <c r="W3">
-        <v>3.739852830124136E-10</v>
+        <v>3.739813606666233E-10</v>
       </c>
       <c r="X3">
-        <v>-6.504281166012063E-10</v>
+        <v>-6.50429774597672E-10</v>
       </c>
       <c r="Y3">
-        <v>8.374253143538245E-10</v>
+        <v>8.374246849971349E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -8946,34 +8946,34 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.5411436570461288</v>
+        <v>0.5411436570461289</v>
       </c>
       <c r="AH3">
         <v>0.8572501492036539</v>
       </c>
       <c r="AI3">
-        <v>0.9547462544799002</v>
+        <v>0.9547462544799001</v>
       </c>
       <c r="AJ3">
-        <v>0.5411436570370807</v>
+        <v>0.5411436570370806</v>
       </c>
       <c r="AK3">
-        <v>0.8572501491969717</v>
+        <v>0.8572501491969715</v>
       </c>
       <c r="AL3">
         <v>0.9547462544833361</v>
       </c>
       <c r="AM3">
-        <v>-10.86424711554411</v>
+        <v>-10.86424711554406</v>
       </c>
       <c r="AN3">
-        <v>-108.0574514197637</v>
+        <v>-108.0574514197638</v>
       </c>
       <c r="AO3">
         <v>106.1597915301922</v>
       </c>
       <c r="AP3">
-        <v>-10.86424711684952</v>
+        <v>-10.86424711684946</v>
       </c>
       <c r="AQ3">
         <v>-108.0574514195154</v>
@@ -9023,40 +9023,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.748870621990083E-10</v>
+        <v>8.748959081686472E-10</v>
       </c>
       <c r="O4">
-        <v>3.806651213739787E-10</v>
+        <v>3.806668838316532E-10</v>
       </c>
       <c r="P4">
-        <v>5.677762089631733E-11</v>
+        <v>5.678311236712289E-11</v>
       </c>
       <c r="Q4">
-        <v>-8.748858384384665E-10</v>
+        <v>-8.748942362330544E-10</v>
       </c>
       <c r="R4">
-        <v>-3.80667177353025E-10</v>
+        <v>-3.80666590298707E-10</v>
       </c>
       <c r="S4">
-        <v>-5.677933622119888E-11</v>
+        <v>-5.67852843092938E-11</v>
       </c>
       <c r="T4">
-        <v>-3.739881405217293E-10</v>
+        <v>-3.739862493008063E-10</v>
       </c>
       <c r="U4">
-        <v>6.504334568556135E-10</v>
+        <v>6.50433950024316E-10</v>
       </c>
       <c r="V4">
-        <v>-8.374104253930436E-10</v>
+        <v>-8.374253143504046E-10</v>
       </c>
       <c r="W4">
-        <v>3.739843167103398E-10</v>
+        <v>3.739813606666233E-10</v>
       </c>
       <c r="X4">
-        <v>-6.504381254441202E-10</v>
+        <v>-6.50429774597672E-10</v>
       </c>
       <c r="Y4">
-        <v>8.374122826660767E-10</v>
+        <v>8.374246849971349E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -9077,34 +9077,34 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.5411436570461287</v>
+        <v>0.5411436570461289</v>
       </c>
       <c r="AH4">
-        <v>0.8572501492036542</v>
+        <v>0.8572501492036539</v>
       </c>
       <c r="AI4">
-        <v>0.9547462544799004</v>
+        <v>0.9547462544799001</v>
       </c>
       <c r="AJ4">
-        <v>0.5411436570370807</v>
+        <v>0.5411436570370806</v>
       </c>
       <c r="AK4">
-        <v>0.8572501491969717</v>
+        <v>0.8572501491969715</v>
       </c>
       <c r="AL4">
         <v>0.9547462544833361</v>
       </c>
       <c r="AM4">
-        <v>-10.86424711554411</v>
+        <v>-10.86424711554406</v>
       </c>
       <c r="AN4">
-        <v>-108.0574514197637</v>
+        <v>-108.0574514197638</v>
       </c>
       <c r="AO4">
         <v>106.1597915301922</v>
       </c>
       <c r="AP4">
-        <v>-10.86424711684952</v>
+        <v>-10.86424711684946</v>
       </c>
       <c r="AQ4">
         <v>-108.0574514195154</v>
@@ -9301,40 +9301,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.966639475340142E-09</v>
+        <v>-2.966601381876627E-09</v>
       </c>
       <c r="O2">
-        <v>-7.428100953978882E-10</v>
+        <v>-7.427875816977486E-10</v>
       </c>
       <c r="P2">
-        <v>-7.404957899589492E-10</v>
+        <v>-7.405200374034687E-10</v>
       </c>
       <c r="Q2">
-        <v>2.966618695448574E-09</v>
+        <v>2.96658406531102E-09</v>
       </c>
       <c r="R2">
-        <v>7.42817020932976E-10</v>
+        <v>7.427875826623024E-10</v>
       </c>
       <c r="S2">
-        <v>7.404992516479318E-10</v>
+        <v>7.405131111959358E-10</v>
       </c>
       <c r="T2">
-        <v>-2.626569805740183E-12</v>
+        <v>-2.616168380232441E-12</v>
       </c>
       <c r="U2">
-        <v>3.8300719243171E-09</v>
+        <v>3.830065004429667E-09</v>
       </c>
       <c r="V2">
-        <v>-3.831381746131183E-09</v>
+        <v>-3.831367900112159E-09</v>
       </c>
       <c r="W2">
-        <v>2.626563634440095E-12</v>
+        <v>2.616163249621944E-12</v>
       </c>
       <c r="X2">
-        <v>-3.830066726742767E-09</v>
+        <v>-3.830066735588648E-09</v>
       </c>
       <c r="Y2">
-        <v>3.831388674328028E-09</v>
+        <v>3.831367898535E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -9355,40 +9355,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.7311297291053342</v>
+        <v>0.7311297291053347</v>
       </c>
       <c r="AH2">
-        <v>0.3655648643427193</v>
+        <v>0.3655648643427182</v>
       </c>
       <c r="AI2">
-        <v>0.3655648647626212</v>
+        <v>0.3655648647626202</v>
       </c>
       <c r="AJ2">
-        <v>0.7311297291211749</v>
+        <v>0.7311297291211748</v>
       </c>
       <c r="AK2">
-        <v>0.3655648643042824</v>
+        <v>0.3655648643042816</v>
       </c>
       <c r="AL2">
-        <v>0.3655648648168983</v>
+        <v>0.3655648648168978</v>
       </c>
       <c r="AM2">
-        <v>0.01721676665950743</v>
+        <v>0.01721676665944566</v>
       </c>
       <c r="AN2">
-        <v>-179.982783233704</v>
+        <v>-179.9827832337041</v>
       </c>
       <c r="AO2">
-        <v>-179.9827832329748</v>
+        <v>-179.9827832329747</v>
       </c>
       <c r="AP2">
-        <v>0.01721676806546866</v>
+        <v>0.0172167680653753</v>
       </c>
       <c r="AQ2">
-        <v>-179.9827832258906</v>
+        <v>-179.9827832258907</v>
       </c>
       <c r="AR2">
-        <v>-179.9827832379763</v>
+        <v>-179.9827832379762</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -9432,40 +9432,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>9.888521185342125E-10</v>
+        <v>9.88855582900868E-10</v>
       </c>
       <c r="O3">
-        <v>2.476010550584898E-10</v>
+        <v>2.475958600695458E-10</v>
       </c>
       <c r="P3">
-        <v>2.46831928102444E-10</v>
+        <v>2.46849246813653E-10</v>
       </c>
       <c r="Q3">
-        <v>-9.888590451790054E-10</v>
+        <v>-9.88865972871624E-10</v>
       </c>
       <c r="R3">
-        <v>-2.476010544887874E-10</v>
+        <v>-2.475958615812293E-10</v>
       </c>
       <c r="S3">
-        <v>-2.468423180309627E-10</v>
+        <v>-2.468423201123433E-10</v>
       </c>
       <c r="T3">
-        <v>8.755149754202673E-13</v>
+        <v>8.720526901480811E-13</v>
       </c>
       <c r="U3">
-        <v>-1.276686024140881E-09</v>
+        <v>-1.276686025701917E-09</v>
       </c>
       <c r="V3">
-        <v>1.277134175586426E-09</v>
+        <v>1.277127254137953E-09</v>
       </c>
       <c r="W3">
-        <v>-8.755170487104773E-13</v>
+        <v>-8.720558041304993E-13</v>
       </c>
       <c r="X3">
-        <v>1.276684292533899E-09</v>
+        <v>1.276691220746857E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.277134178652475E-09</v>
+        <v>-1.277127252000543E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -9489,37 +9489,37 @@
         <v>0.7311297291264544</v>
       </c>
       <c r="AH3">
-        <v>0.3655648642914708</v>
+        <v>0.3655648642914697</v>
       </c>
       <c r="AI3">
-        <v>0.3655648648349912</v>
+        <v>0.3655648648349905</v>
       </c>
       <c r="AJ3">
-        <v>0.7311297291211749</v>
+        <v>0.7311297291211748</v>
       </c>
       <c r="AK3">
-        <v>0.3655648643042824</v>
+        <v>0.3655648643042816</v>
       </c>
       <c r="AL3">
-        <v>0.3655648648168983</v>
+        <v>0.3655648648168978</v>
       </c>
       <c r="AM3">
-        <v>0.01721676853411538</v>
+        <v>0.01721676853403228</v>
       </c>
       <c r="AN3">
-        <v>-179.9827832232861</v>
+        <v>-179.9827832232862</v>
       </c>
       <c r="AO3">
-        <v>-179.9827832396435</v>
+        <v>-179.9827832396434</v>
       </c>
       <c r="AP3">
-        <v>0.01721676806546866</v>
+        <v>0.0172167680653753</v>
       </c>
       <c r="AQ3">
-        <v>-179.9827832258906</v>
+        <v>-179.9827832258907</v>
       </c>
       <c r="AR3">
-        <v>-179.9827832379763</v>
+        <v>-179.9827832379762</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -9563,40 +9563,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>9.888521206155972E-10</v>
+        <v>9.88855582900868E-10</v>
       </c>
       <c r="O4">
-        <v>2.476010550584897E-10</v>
+        <v>2.475958600695458E-10</v>
       </c>
       <c r="P4">
-        <v>2.468457793249232E-10</v>
+        <v>2.46849246813653E-10</v>
       </c>
       <c r="Q4">
-        <v>-9.888590472603902E-10</v>
+        <v>-9.88865972871624E-10</v>
       </c>
       <c r="R4">
-        <v>-2.475941278368659E-10</v>
+        <v>-2.475958615812293E-10</v>
       </c>
       <c r="S4">
-        <v>-2.468492446828939E-10</v>
+        <v>-2.468423201123433E-10</v>
       </c>
       <c r="T4">
-        <v>8.685883234939888E-13</v>
+        <v>8.720526901480811E-13</v>
       </c>
       <c r="U4">
-        <v>-1.276686024140881E-09</v>
+        <v>-1.276686025701917E-09</v>
       </c>
       <c r="V4">
-        <v>1.277141106401126E-09</v>
+        <v>1.277127254137953E-09</v>
       </c>
       <c r="W4">
-        <v>-8.685903967841902E-13</v>
+        <v>-8.720558041304993E-13</v>
       </c>
       <c r="X4">
-        <v>1.276684294615284E-09</v>
+        <v>1.276691220746857E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.277134180733859E-09</v>
+        <v>-1.277127252000543E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -9620,37 +9620,37 @@
         <v>0.7311297291264544</v>
       </c>
       <c r="AH4">
-        <v>0.3655648642914707</v>
+        <v>0.3655648642914697</v>
       </c>
       <c r="AI4">
-        <v>0.3655648648349913</v>
+        <v>0.3655648648349905</v>
       </c>
       <c r="AJ4">
-        <v>0.7311297291211749</v>
+        <v>0.7311297291211748</v>
       </c>
       <c r="AK4">
-        <v>0.3655648643042824</v>
+        <v>0.3655648643042816</v>
       </c>
       <c r="AL4">
-        <v>0.3655648648168983</v>
+        <v>0.3655648648168978</v>
       </c>
       <c r="AM4">
-        <v>0.01721676853411878</v>
+        <v>0.01721676853403228</v>
       </c>
       <c r="AN4">
-        <v>-179.9827832232861</v>
+        <v>-179.9827832232862</v>
       </c>
       <c r="AO4">
-        <v>-179.9827832396435</v>
+        <v>-179.9827832396434</v>
       </c>
       <c r="AP4">
-        <v>0.01721676806546866</v>
+        <v>0.0172167680653753</v>
       </c>
       <c r="AQ4">
-        <v>-179.9827832258906</v>
+        <v>-179.9827832258907</v>
       </c>
       <c r="AR4">
-        <v>-179.9827832379763</v>
+        <v>-179.9827832379762</v>
       </c>
     </row>
   </sheetData>
@@ -9841,40 +9841,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.966639475340142E-09</v>
+        <v>-2.966601381876627E-09</v>
       </c>
       <c r="O2">
-        <v>-7.428100953978882E-10</v>
+        <v>-7.427875816977486E-10</v>
       </c>
       <c r="P2">
-        <v>-7.404957899589492E-10</v>
+        <v>-7.405200374034687E-10</v>
       </c>
       <c r="Q2">
-        <v>2.966618695448574E-09</v>
+        <v>2.96658406531102E-09</v>
       </c>
       <c r="R2">
-        <v>7.42817020932976E-10</v>
+        <v>7.427875826623024E-10</v>
       </c>
       <c r="S2">
-        <v>7.404992516479318E-10</v>
+        <v>7.405131111959358E-10</v>
       </c>
       <c r="T2">
-        <v>-2.626569805740183E-12</v>
+        <v>-2.616168380232441E-12</v>
       </c>
       <c r="U2">
-        <v>3.8300719243171E-09</v>
+        <v>3.830065004429667E-09</v>
       </c>
       <c r="V2">
-        <v>-3.831381746131183E-09</v>
+        <v>-3.831367900112159E-09</v>
       </c>
       <c r="W2">
-        <v>2.626563634440095E-12</v>
+        <v>2.616163249621944E-12</v>
       </c>
       <c r="X2">
-        <v>-3.830066726742767E-09</v>
+        <v>-3.830066735588648E-09</v>
       </c>
       <c r="Y2">
-        <v>3.831388674328028E-09</v>
+        <v>3.831367898535E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -9895,40 +9895,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.7311297291053342</v>
+        <v>0.7311297291053347</v>
       </c>
       <c r="AH2">
-        <v>0.3655648643427193</v>
+        <v>0.3655648643427182</v>
       </c>
       <c r="AI2">
-        <v>0.3655648647626212</v>
+        <v>0.3655648647626202</v>
       </c>
       <c r="AJ2">
-        <v>0.7311297291211749</v>
+        <v>0.7311297291211748</v>
       </c>
       <c r="AK2">
-        <v>0.3655648643042824</v>
+        <v>0.3655648643042816</v>
       </c>
       <c r="AL2">
-        <v>0.3655648648168983</v>
+        <v>0.3655648648168978</v>
       </c>
       <c r="AM2">
-        <v>0.01721676665950743</v>
+        <v>0.01721676665944566</v>
       </c>
       <c r="AN2">
-        <v>-179.982783233704</v>
+        <v>-179.9827832337041</v>
       </c>
       <c r="AO2">
-        <v>-179.9827832329748</v>
+        <v>-179.9827832329747</v>
       </c>
       <c r="AP2">
-        <v>0.01721676806546866</v>
+        <v>0.0172167680653753</v>
       </c>
       <c r="AQ2">
-        <v>-179.9827832258906</v>
+        <v>-179.9827832258907</v>
       </c>
       <c r="AR2">
-        <v>-179.9827832379763</v>
+        <v>-179.9827832379762</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -9972,40 +9972,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>9.888521185342125E-10</v>
+        <v>9.88855582900868E-10</v>
       </c>
       <c r="O3">
-        <v>2.476010550584898E-10</v>
+        <v>2.475958600695458E-10</v>
       </c>
       <c r="P3">
-        <v>2.46831928102444E-10</v>
+        <v>2.46849246813653E-10</v>
       </c>
       <c r="Q3">
-        <v>-9.888590451790054E-10</v>
+        <v>-9.88865972871624E-10</v>
       </c>
       <c r="R3">
-        <v>-2.476010544887874E-10</v>
+        <v>-2.475958615812293E-10</v>
       </c>
       <c r="S3">
-        <v>-2.468423180309627E-10</v>
+        <v>-2.468423201123433E-10</v>
       </c>
       <c r="T3">
-        <v>8.755149754202673E-13</v>
+        <v>8.720526901480811E-13</v>
       </c>
       <c r="U3">
-        <v>-1.276686024140881E-09</v>
+        <v>-1.276686025701917E-09</v>
       </c>
       <c r="V3">
-        <v>1.277134175586426E-09</v>
+        <v>1.277127254137953E-09</v>
       </c>
       <c r="W3">
-        <v>-8.755170487104773E-13</v>
+        <v>-8.720558041304993E-13</v>
       </c>
       <c r="X3">
-        <v>1.276684292533899E-09</v>
+        <v>1.276691220746857E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.277134178652475E-09</v>
+        <v>-1.277127252000543E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -10029,37 +10029,37 @@
         <v>0.7311297291264544</v>
       </c>
       <c r="AH3">
-        <v>0.3655648642914708</v>
+        <v>0.3655648642914697</v>
       </c>
       <c r="AI3">
-        <v>0.3655648648349912</v>
+        <v>0.3655648648349905</v>
       </c>
       <c r="AJ3">
-        <v>0.7311297291211749</v>
+        <v>0.7311297291211748</v>
       </c>
       <c r="AK3">
-        <v>0.3655648643042824</v>
+        <v>0.3655648643042816</v>
       </c>
       <c r="AL3">
-        <v>0.3655648648168983</v>
+        <v>0.3655648648168978</v>
       </c>
       <c r="AM3">
-        <v>0.01721676853411538</v>
+        <v>0.01721676853403228</v>
       </c>
       <c r="AN3">
-        <v>-179.9827832232861</v>
+        <v>-179.9827832232862</v>
       </c>
       <c r="AO3">
-        <v>-179.9827832396435</v>
+        <v>-179.9827832396434</v>
       </c>
       <c r="AP3">
-        <v>0.01721676806546866</v>
+        <v>0.0172167680653753</v>
       </c>
       <c r="AQ3">
-        <v>-179.9827832258906</v>
+        <v>-179.9827832258907</v>
       </c>
       <c r="AR3">
-        <v>-179.9827832379763</v>
+        <v>-179.9827832379762</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -10103,40 +10103,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>9.888521206155972E-10</v>
+        <v>9.88855582900868E-10</v>
       </c>
       <c r="O4">
-        <v>2.476010550584897E-10</v>
+        <v>2.475958600695458E-10</v>
       </c>
       <c r="P4">
-        <v>2.468457793249232E-10</v>
+        <v>2.46849246813653E-10</v>
       </c>
       <c r="Q4">
-        <v>-9.888590472603902E-10</v>
+        <v>-9.88865972871624E-10</v>
       </c>
       <c r="R4">
-        <v>-2.475941278368659E-10</v>
+        <v>-2.475958615812293E-10</v>
       </c>
       <c r="S4">
-        <v>-2.468492446828939E-10</v>
+        <v>-2.468423201123433E-10</v>
       </c>
       <c r="T4">
-        <v>8.685883234939888E-13</v>
+        <v>8.720526901480811E-13</v>
       </c>
       <c r="U4">
-        <v>-1.276686024140881E-09</v>
+        <v>-1.276686025701917E-09</v>
       </c>
       <c r="V4">
-        <v>1.277141106401126E-09</v>
+        <v>1.277127254137953E-09</v>
       </c>
       <c r="W4">
-        <v>-8.685903967841902E-13</v>
+        <v>-8.720558041304993E-13</v>
       </c>
       <c r="X4">
-        <v>1.276684294615284E-09</v>
+        <v>1.276691220746857E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.277134180733859E-09</v>
+        <v>-1.277127252000543E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -10160,37 +10160,37 @@
         <v>0.7311297291264544</v>
       </c>
       <c r="AH4">
-        <v>0.3655648642914707</v>
+        <v>0.3655648642914697</v>
       </c>
       <c r="AI4">
-        <v>0.3655648648349913</v>
+        <v>0.3655648648349905</v>
       </c>
       <c r="AJ4">
-        <v>0.7311297291211749</v>
+        <v>0.7311297291211748</v>
       </c>
       <c r="AK4">
-        <v>0.3655648643042824</v>
+        <v>0.3655648643042816</v>
       </c>
       <c r="AL4">
-        <v>0.3655648648168983</v>
+        <v>0.3655648648168978</v>
       </c>
       <c r="AM4">
-        <v>0.01721676853411878</v>
+        <v>0.01721676853403228</v>
       </c>
       <c r="AN4">
-        <v>-179.9827832232861</v>
+        <v>-179.9827832232862</v>
       </c>
       <c r="AO4">
-        <v>-179.9827832396435</v>
+        <v>-179.9827832396434</v>
       </c>
       <c r="AP4">
-        <v>0.01721676806546866</v>
+        <v>0.0172167680653753</v>
       </c>
       <c r="AQ4">
-        <v>-179.9827832258906</v>
+        <v>-179.9827832258907</v>
       </c>
       <c r="AR4">
-        <v>-179.9827832379763</v>
+        <v>-179.9827832379762</v>
       </c>
     </row>
   </sheetData>
@@ -10381,40 +10381,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.27823960536492E-09</v>
+        <v>-2.278223504458527E-09</v>
       </c>
       <c r="O2">
-        <v>-1.906621315351239E-09</v>
+        <v>-1.906603444342098E-09</v>
       </c>
       <c r="P2">
-        <v>-3.133050606616588E-09</v>
+        <v>-3.133050588344367E-09</v>
       </c>
       <c r="Q2">
-        <v>2.278243367346318E-09</v>
+        <v>2.278215421714936E-09</v>
       </c>
       <c r="R2">
-        <v>1.906618621441982E-09</v>
+        <v>1.906619896656844E-09</v>
       </c>
       <c r="S2">
-        <v>3.133053859819989E-09</v>
+        <v>3.133051242808321E-09</v>
       </c>
       <c r="T2">
-        <v>7.137939505496804E-10</v>
+        <v>7.138212622326671E-10</v>
       </c>
       <c r="U2">
-        <v>4.345330923204518E-09</v>
+        <v>4.345346510190492E-09</v>
       </c>
       <c r="V2">
-        <v>-7.970712621871187E-10</v>
+        <v>-7.970446022675305E-10</v>
       </c>
       <c r="W2">
-        <v>-7.137982713381747E-10</v>
+        <v>-7.138207033262041E-10</v>
       </c>
       <c r="X2">
-        <v>-4.345325438930431E-09</v>
+        <v>-4.345338427589793E-09</v>
       </c>
       <c r="Y2">
-        <v>7.970738611660104E-10</v>
+        <v>7.97050454238784E-10</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -10435,34 +10435,34 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.8551989639615297</v>
+        <v>0.8551989639615301</v>
       </c>
       <c r="AH2">
-        <v>0.6449366187237819</v>
+        <v>0.6449366187237814</v>
       </c>
       <c r="AI2">
-        <v>0.4394789399935439</v>
+        <v>0.4394789399935433</v>
       </c>
       <c r="AJ2">
-        <v>0.855198963968226</v>
+        <v>0.8551989639682259</v>
       </c>
       <c r="AK2">
-        <v>0.6449366187054976</v>
+        <v>0.644936618705497</v>
       </c>
       <c r="AL2">
-        <v>0.4394789400293728</v>
+        <v>0.4394789400293719</v>
       </c>
       <c r="AM2">
-        <v>-3.955340391003945</v>
+        <v>-3.955340391003966</v>
       </c>
       <c r="AN2">
         <v>-153.8366771790807</v>
       </c>
       <c r="AO2">
-        <v>128.6205387876522</v>
+        <v>128.6205387876521</v>
       </c>
       <c r="AP2">
-        <v>-3.955340389996076</v>
+        <v>-3.955340389996113</v>
       </c>
       <c r="AQ2">
         <v>-153.8366771755841</v>
@@ -10512,40 +10512,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>7.593901574125834E-10</v>
+        <v>7.594010991880297E-10</v>
       </c>
       <c r="O3">
-        <v>6.355550307050937E-10</v>
+        <v>6.355563538168431E-10</v>
       </c>
       <c r="P3">
-        <v>1.044355399778216E-09</v>
+        <v>1.044352801038768E-09</v>
       </c>
       <c r="Q3">
-        <v>-7.593985196191799E-10</v>
+        <v>-7.594086230866605E-10</v>
       </c>
       <c r="R3">
-        <v>-6.355468525267127E-10</v>
+        <v>-6.355508697588453E-10</v>
       </c>
       <c r="S3">
-        <v>-1.044352146762406E-09</v>
+        <v>-1.044352146762404E-09</v>
       </c>
       <c r="T3">
-        <v>-2.379513805732527E-10</v>
+        <v>-2.379399550022477E-10</v>
       </c>
       <c r="U3">
-        <v>-1.448441010703838E-09</v>
+        <v>-1.448447168268472E-09</v>
       </c>
       <c r="V3">
-        <v>2.656839148507391E-10</v>
+        <v>2.656871678430996E-10</v>
       </c>
       <c r="W3">
-        <v>2.379478980620694E-10</v>
+        <v>2.379485966520412E-10</v>
       </c>
       <c r="X3">
-        <v>1.448438220816299E-09</v>
+        <v>1.448449862415472E-09</v>
       </c>
       <c r="Y3">
-        <v>-2.656813160846875E-10</v>
+        <v>-2.656813160846873E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -10569,22 +10569,22 @@
         <v>0.8551989639704575</v>
       </c>
       <c r="AH3">
-        <v>0.6449366186994032</v>
+        <v>0.6449366186994026</v>
       </c>
       <c r="AI3">
-        <v>0.4394789400413159</v>
+        <v>0.4394789400413149</v>
       </c>
       <c r="AJ3">
-        <v>0.855198963968226</v>
+        <v>0.8551989639682259</v>
       </c>
       <c r="AK3">
-        <v>0.6449366187054976</v>
+        <v>0.644936618705497</v>
       </c>
       <c r="AL3">
-        <v>0.4394789400293728</v>
+        <v>0.4394789400293719</v>
       </c>
       <c r="AM3">
-        <v>-3.955340389660123</v>
+        <v>-3.955340389660161</v>
       </c>
       <c r="AN3">
         <v>-153.8366771744186</v>
@@ -10593,7 +10593,7 @@
         <v>128.6205387919062</v>
       </c>
       <c r="AP3">
-        <v>-3.955340389996076</v>
+        <v>-3.955340389996113</v>
       </c>
       <c r="AQ3">
         <v>-153.8366771755841</v>
@@ -10643,40 +10643,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>7.593907162845607E-10</v>
+        <v>7.594010991880297E-10</v>
       </c>
       <c r="O4">
-        <v>6.355386743952477E-10</v>
+        <v>6.355563538168431E-10</v>
       </c>
       <c r="P4">
-        <v>1.044367103241829E-09</v>
+        <v>1.044352801038768E-09</v>
       </c>
       <c r="Q4">
-        <v>-7.594031198781495E-10</v>
+        <v>-7.594086230866605E-10</v>
       </c>
       <c r="R4">
-        <v>-6.355413684921736E-10</v>
+        <v>-6.355508697588453E-10</v>
       </c>
       <c r="S4">
-        <v>-1.044363850226019E-09</v>
+        <v>-1.044352146762404E-09</v>
       </c>
       <c r="T4">
-        <v>-2.379432977992681E-10</v>
+        <v>-2.379399550022477E-10</v>
       </c>
       <c r="U4">
-        <v>-1.448435430875528E-09</v>
+        <v>-1.448447168268472E-09</v>
       </c>
       <c r="V4">
-        <v>2.656826063449084E-10</v>
+        <v>2.656871678430996E-10</v>
       </c>
       <c r="W4">
-        <v>2.379400947240733E-10</v>
+        <v>2.379485966520412E-10</v>
       </c>
       <c r="X4">
-        <v>1.448440914936682E-09</v>
+        <v>1.448449862415472E-09</v>
       </c>
       <c r="Y4">
-        <v>-2.656800075788565E-10</v>
+        <v>-2.656813160846873E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -10697,25 +10697,25 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.8551989639704576</v>
+        <v>0.8551989639704575</v>
       </c>
       <c r="AH4">
-        <v>0.644936618699403</v>
+        <v>0.6449366186994026</v>
       </c>
       <c r="AI4">
-        <v>0.4394789400413159</v>
+        <v>0.4394789400413149</v>
       </c>
       <c r="AJ4">
-        <v>0.855198963968226</v>
+        <v>0.8551989639682259</v>
       </c>
       <c r="AK4">
-        <v>0.6449366187054976</v>
+        <v>0.644936618705497</v>
       </c>
       <c r="AL4">
-        <v>0.4394789400293728</v>
+        <v>0.4394789400293719</v>
       </c>
       <c r="AM4">
-        <v>-3.955340389660124</v>
+        <v>-3.955340389660161</v>
       </c>
       <c r="AN4">
         <v>-153.8366771744186</v>
@@ -10724,7 +10724,7 @@
         <v>128.6205387919062</v>
       </c>
       <c r="AP4">
-        <v>-3.955340389996076</v>
+        <v>-3.955340389996113</v>
       </c>
       <c r="AQ4">
         <v>-153.8366771755841</v>
@@ -10921,40 +10921,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.27823960536492E-09</v>
+        <v>-2.278223504458527E-09</v>
       </c>
       <c r="O2">
-        <v>-1.906621315351239E-09</v>
+        <v>-1.906603444342098E-09</v>
       </c>
       <c r="P2">
-        <v>-3.133050606616588E-09</v>
+        <v>-3.133050588344367E-09</v>
       </c>
       <c r="Q2">
-        <v>2.278243367346318E-09</v>
+        <v>2.278215421714936E-09</v>
       </c>
       <c r="R2">
-        <v>1.906618621441982E-09</v>
+        <v>1.906619896656844E-09</v>
       </c>
       <c r="S2">
-        <v>3.133053859819989E-09</v>
+        <v>3.133051242808321E-09</v>
       </c>
       <c r="T2">
-        <v>7.137939505496804E-10</v>
+        <v>7.138212622326671E-10</v>
       </c>
       <c r="U2">
-        <v>4.345330923204518E-09</v>
+        <v>4.345346510190492E-09</v>
       </c>
       <c r="V2">
-        <v>-7.970712621871187E-10</v>
+        <v>-7.970446022675305E-10</v>
       </c>
       <c r="W2">
-        <v>-7.137982713381747E-10</v>
+        <v>-7.138207033262041E-10</v>
       </c>
       <c r="X2">
-        <v>-4.345325438930431E-09</v>
+        <v>-4.345338427589793E-09</v>
       </c>
       <c r="Y2">
-        <v>7.970738611660104E-10</v>
+        <v>7.97050454238784E-10</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -10975,34 +10975,34 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.8551989639615297</v>
+        <v>0.8551989639615301</v>
       </c>
       <c r="AH2">
-        <v>0.6449366187237819</v>
+        <v>0.6449366187237814</v>
       </c>
       <c r="AI2">
-        <v>0.4394789399935439</v>
+        <v>0.4394789399935433</v>
       </c>
       <c r="AJ2">
-        <v>0.855198963968226</v>
+        <v>0.8551989639682259</v>
       </c>
       <c r="AK2">
-        <v>0.6449366187054976</v>
+        <v>0.644936618705497</v>
       </c>
       <c r="AL2">
-        <v>0.4394789400293728</v>
+        <v>0.4394789400293719</v>
       </c>
       <c r="AM2">
-        <v>-3.955340391003945</v>
+        <v>-3.955340391003966</v>
       </c>
       <c r="AN2">
         <v>-153.8366771790807</v>
       </c>
       <c r="AO2">
-        <v>128.6205387876522</v>
+        <v>128.6205387876521</v>
       </c>
       <c r="AP2">
-        <v>-3.955340389996076</v>
+        <v>-3.955340389996113</v>
       </c>
       <c r="AQ2">
         <v>-153.8366771755841</v>
@@ -11052,40 +11052,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>7.593901574125834E-10</v>
+        <v>7.594010991880297E-10</v>
       </c>
       <c r="O3">
-        <v>6.355550307050937E-10</v>
+        <v>6.355563538168431E-10</v>
       </c>
       <c r="P3">
-        <v>1.044355399778216E-09</v>
+        <v>1.044352801038768E-09</v>
       </c>
       <c r="Q3">
-        <v>-7.593985196191799E-10</v>
+        <v>-7.594086230866605E-10</v>
       </c>
       <c r="R3">
-        <v>-6.355468525267127E-10</v>
+        <v>-6.355508697588453E-10</v>
       </c>
       <c r="S3">
-        <v>-1.044352146762406E-09</v>
+        <v>-1.044352146762404E-09</v>
       </c>
       <c r="T3">
-        <v>-2.379513805732527E-10</v>
+        <v>-2.379399550022477E-10</v>
       </c>
       <c r="U3">
-        <v>-1.448441010703838E-09</v>
+        <v>-1.448447168268472E-09</v>
       </c>
       <c r="V3">
-        <v>2.656839148507391E-10</v>
+        <v>2.656871678430996E-10</v>
       </c>
       <c r="W3">
-        <v>2.379478980620694E-10</v>
+        <v>2.379485966520412E-10</v>
       </c>
       <c r="X3">
-        <v>1.448438220816299E-09</v>
+        <v>1.448449862415472E-09</v>
       </c>
       <c r="Y3">
-        <v>-2.656813160846875E-10</v>
+        <v>-2.656813160846873E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -11109,22 +11109,22 @@
         <v>0.8551989639704575</v>
       </c>
       <c r="AH3">
-        <v>0.6449366186994032</v>
+        <v>0.6449366186994026</v>
       </c>
       <c r="AI3">
-        <v>0.4394789400413159</v>
+        <v>0.4394789400413149</v>
       </c>
       <c r="AJ3">
-        <v>0.855198963968226</v>
+        <v>0.8551989639682259</v>
       </c>
       <c r="AK3">
-        <v>0.6449366187054976</v>
+        <v>0.644936618705497</v>
       </c>
       <c r="AL3">
-        <v>0.4394789400293728</v>
+        <v>0.4394789400293719</v>
       </c>
       <c r="AM3">
-        <v>-3.955340389660123</v>
+        <v>-3.955340389660161</v>
       </c>
       <c r="AN3">
         <v>-153.8366771744186</v>
@@ -11133,7 +11133,7 @@
         <v>128.6205387919062</v>
       </c>
       <c r="AP3">
-        <v>-3.955340389996076</v>
+        <v>-3.955340389996113</v>
       </c>
       <c r="AQ3">
         <v>-153.8366771755841</v>
@@ -11183,40 +11183,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>7.593907162845607E-10</v>
+        <v>7.594010991880297E-10</v>
       </c>
       <c r="O4">
-        <v>6.355386743952477E-10</v>
+        <v>6.355563538168431E-10</v>
       </c>
       <c r="P4">
-        <v>1.044367103241829E-09</v>
+        <v>1.044352801038768E-09</v>
       </c>
       <c r="Q4">
-        <v>-7.594031198781495E-10</v>
+        <v>-7.594086230866605E-10</v>
       </c>
       <c r="R4">
-        <v>-6.355413684921736E-10</v>
+        <v>-6.355508697588453E-10</v>
       </c>
       <c r="S4">
-        <v>-1.044363850226019E-09</v>
+        <v>-1.044352146762404E-09</v>
       </c>
       <c r="T4">
-        <v>-2.379432977992681E-10</v>
+        <v>-2.379399550022477E-10</v>
       </c>
       <c r="U4">
-        <v>-1.448435430875528E-09</v>
+        <v>-1.448447168268472E-09</v>
       </c>
       <c r="V4">
-        <v>2.656826063449084E-10</v>
+        <v>2.656871678430996E-10</v>
       </c>
       <c r="W4">
-        <v>2.379400947240733E-10</v>
+        <v>2.379485966520412E-10</v>
       </c>
       <c r="X4">
-        <v>1.448440914936682E-09</v>
+        <v>1.448449862415472E-09</v>
       </c>
       <c r="Y4">
-        <v>-2.656800075788565E-10</v>
+        <v>-2.656813160846873E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -11237,25 +11237,25 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.8551989639704576</v>
+        <v>0.8551989639704575</v>
       </c>
       <c r="AH4">
-        <v>0.644936618699403</v>
+        <v>0.6449366186994026</v>
       </c>
       <c r="AI4">
-        <v>0.4394789400413159</v>
+        <v>0.4394789400413149</v>
       </c>
       <c r="AJ4">
-        <v>0.855198963968226</v>
+        <v>0.8551989639682259</v>
       </c>
       <c r="AK4">
-        <v>0.6449366187054976</v>
+        <v>0.644936618705497</v>
       </c>
       <c r="AL4">
-        <v>0.4394789400293728</v>
+        <v>0.4394789400293719</v>
       </c>
       <c r="AM4">
-        <v>-3.955340389660124</v>
+        <v>-3.955340389660161</v>
       </c>
       <c r="AN4">
         <v>-153.8366771744186</v>
@@ -11264,7 +11264,7 @@
         <v>128.6205387919062</v>
       </c>
       <c r="AP4">
-        <v>-3.955340389996076</v>
+        <v>-3.955340389996113</v>
       </c>
       <c r="AQ4">
         <v>-153.8366771755841</v>
@@ -11461,40 +11461,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.452721687690681E-09</v>
+        <v>-2.452724834881503E-09</v>
       </c>
       <c r="O2">
-        <v>-6.142721314333012E-10</v>
+        <v>-6.142752807720718E-10</v>
       </c>
       <c r="P2">
-        <v>-6.121028733697843E-10</v>
+        <v>-6.120934307233476E-10</v>
       </c>
       <c r="Q2">
-        <v>2.452718540601908E-09</v>
+        <v>2.45272640965294E-09</v>
       </c>
       <c r="R2">
-        <v>6.142658382935141E-10</v>
+        <v>6.142721358970835E-10</v>
       </c>
       <c r="S2">
-        <v>6.120997290321344E-10</v>
+        <v>6.120965786193976E-10</v>
       </c>
       <c r="T2">
-        <v>-2.495558308297732E-12</v>
+        <v>-2.495559382275207E-12</v>
       </c>
       <c r="U2">
-        <v>3.163951222150094E-09</v>
+        <v>3.163957515457756E-09</v>
       </c>
       <c r="V2">
-        <v>-3.165203730059228E-09</v>
+        <v>-3.165206874028123E-09</v>
       </c>
       <c r="W2">
-        <v>2.495557294628432E-12</v>
+        <v>2.492412788747476E-12</v>
       </c>
       <c r="X2">
-        <v>-3.163952797476922E-09</v>
+        <v>-3.163962236901425E-09</v>
       </c>
       <c r="Y2">
-        <v>3.165197435020354E-09</v>
+        <v>3.165206875518847E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -11518,37 +11518,37 @@
         <v>0.66439163618761</v>
       </c>
       <c r="AH2">
-        <v>0.3321958179292141</v>
+        <v>0.3321958179292137</v>
       </c>
       <c r="AI2">
-        <v>0.332195818258402</v>
+        <v>0.3321958182584019</v>
       </c>
       <c r="AJ2">
-        <v>0.6643916362152698</v>
+        <v>0.66439163621527</v>
       </c>
       <c r="AK2">
-        <v>0.3321958179009152</v>
+        <v>0.3321958179009148</v>
       </c>
       <c r="AL2">
-        <v>0.3321958183143616</v>
+        <v>0.3321958183143613</v>
       </c>
       <c r="AM2">
-        <v>0.01955212036741396</v>
+        <v>0.01955212036746307</v>
       </c>
       <c r="AN2">
         <v>-179.9804478777208</v>
       </c>
       <c r="AO2">
-        <v>-179.9804478815423</v>
+        <v>-179.9804478815425</v>
       </c>
       <c r="AP2">
-        <v>0.01955212177374359</v>
+        <v>0.01955212177380405</v>
       </c>
       <c r="AQ2">
         <v>-179.9804478640088</v>
       </c>
       <c r="AR2">
-        <v>-179.9804478924416</v>
+        <v>-179.9804478924418</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -11592,40 +11592,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.175801931878284E-10</v>
+        <v>8.175707473194596E-10</v>
       </c>
       <c r="O3">
-        <v>2.047542316988562E-10</v>
+        <v>2.047542316988578E-10</v>
       </c>
       <c r="P3">
-        <v>2.040311442458695E-10</v>
+        <v>2.040342925106703E-10</v>
       </c>
       <c r="Q3">
-        <v>-8.175770449116914E-10</v>
+        <v>-8.175723219775075E-10</v>
       </c>
       <c r="R3">
-        <v>-2.047542310835488E-10</v>
+        <v>-2.047542321575251E-10</v>
       </c>
       <c r="S3">
-        <v>-2.040311420195629E-10</v>
+        <v>-2.040311452414907E-10</v>
       </c>
       <c r="T3">
-        <v>8.234624353270234E-13</v>
+        <v>8.360479766896449E-13</v>
       </c>
       <c r="U3">
-        <v>-1.054654604526641E-09</v>
+        <v>-1.054654604526639E-09</v>
       </c>
       <c r="V3">
-        <v>1.05506790913099E-09</v>
+        <v>1.055064763014139E-09</v>
       </c>
       <c r="W3">
-        <v>-8.266085454731269E-13</v>
+        <v>-8.329013161551556E-13</v>
       </c>
       <c r="X3">
-        <v>1.054653030977513E-09</v>
+        <v>1.054656178168332E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.055074203466333E-09</v>
+        <v>-1.055064761893859E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -11649,37 +11649,37 @@
         <v>0.6643916362244897</v>
       </c>
       <c r="AH3">
-        <v>0.3321958178914821</v>
+        <v>0.3321958178914817</v>
       </c>
       <c r="AI3">
-        <v>0.3321958183330145</v>
+        <v>0.3321958183330144</v>
       </c>
       <c r="AJ3">
-        <v>0.6643916362152698</v>
+        <v>0.66439163621527</v>
       </c>
       <c r="AK3">
-        <v>0.3321958179009152</v>
+        <v>0.3321958179009148</v>
       </c>
       <c r="AL3">
-        <v>0.3321958183143616</v>
+        <v>0.3321958183143613</v>
       </c>
       <c r="AM3">
-        <v>0.01955212224252001</v>
+        <v>0.01955212224253353</v>
       </c>
       <c r="AN3">
-        <v>-179.9804478594381</v>
+        <v>-179.980447859438</v>
       </c>
       <c r="AO3">
-        <v>-179.9804478960747</v>
+        <v>-179.9804478960748</v>
       </c>
       <c r="AP3">
-        <v>0.01955212177374359</v>
+        <v>0.01955212177380405</v>
       </c>
       <c r="AQ3">
         <v>-179.9804478640088</v>
       </c>
       <c r="AR3">
-        <v>-179.9804478924416</v>
+        <v>-179.9804478924418</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -11723,40 +11723,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.1757389021438E-10</v>
+        <v>8.175707473194596E-10</v>
       </c>
       <c r="O4">
-        <v>2.047542327728331E-10</v>
+        <v>2.047542316988578E-10</v>
       </c>
       <c r="P4">
-        <v>2.040279949070971E-10</v>
+        <v>2.040342925106703E-10</v>
       </c>
       <c r="Q4">
-        <v>-8.175770373938633E-10</v>
+        <v>-8.175723219775075E-10</v>
       </c>
       <c r="R4">
-        <v>-2.04757378274369E-10</v>
+        <v>-2.047542321575251E-10</v>
       </c>
       <c r="S4">
-        <v>-2.040279926807895E-10</v>
+        <v>-2.040311452414907E-10</v>
       </c>
       <c r="T4">
-        <v>8.486378139534225E-13</v>
+        <v>8.360479766896449E-13</v>
       </c>
       <c r="U4">
-        <v>-1.05465775171746E-09</v>
+        <v>-1.054654604526639E-09</v>
       </c>
       <c r="V4">
-        <v>1.055074202438664E-09</v>
+        <v>1.055064763014139E-09</v>
       </c>
       <c r="W4">
-        <v>-8.486388812283196E-13</v>
+        <v>-8.329013161551556E-13</v>
       </c>
       <c r="X4">
-        <v>1.054653029903537E-09</v>
+        <v>1.054656178168332E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.055080496774006E-09</v>
+        <v>-1.055064761893859E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -11780,37 +11780,37 @@
         <v>0.6643916362244897</v>
       </c>
       <c r="AH4">
-        <v>0.3321958178914821</v>
+        <v>0.3321958178914817</v>
       </c>
       <c r="AI4">
-        <v>0.3321958183330146</v>
+        <v>0.3321958183330144</v>
       </c>
       <c r="AJ4">
-        <v>0.6643916362152698</v>
+        <v>0.66439163621527</v>
       </c>
       <c r="AK4">
-        <v>0.3321958179009152</v>
+        <v>0.3321958179009148</v>
       </c>
       <c r="AL4">
-        <v>0.3321958183143616</v>
+        <v>0.3321958183143613</v>
       </c>
       <c r="AM4">
-        <v>0.01955212224249465</v>
+        <v>0.01955212224253353</v>
       </c>
       <c r="AN4">
-        <v>-179.9804478594381</v>
+        <v>-179.980447859438</v>
       </c>
       <c r="AO4">
         <v>-179.9804478960748</v>
       </c>
       <c r="AP4">
-        <v>0.01955212177374359</v>
+        <v>0.01955212177380405</v>
       </c>
       <c r="AQ4">
         <v>-179.9804478640088</v>
       </c>
       <c r="AR4">
-        <v>-179.9804478924416</v>
+        <v>-179.9804478924418</v>
       </c>
     </row>
   </sheetData>
@@ -12226,40 +12226,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.452721687690681E-09</v>
+        <v>-2.452724834881503E-09</v>
       </c>
       <c r="O2">
-        <v>-6.142721314333012E-10</v>
+        <v>-6.142752807720718E-10</v>
       </c>
       <c r="P2">
-        <v>-6.121028733697843E-10</v>
+        <v>-6.120934307233476E-10</v>
       </c>
       <c r="Q2">
-        <v>2.452718540601908E-09</v>
+        <v>2.45272640965294E-09</v>
       </c>
       <c r="R2">
-        <v>6.142658382935141E-10</v>
+        <v>6.142721358970835E-10</v>
       </c>
       <c r="S2">
-        <v>6.120997290321344E-10</v>
+        <v>6.120965786193976E-10</v>
       </c>
       <c r="T2">
-        <v>-2.495558308297732E-12</v>
+        <v>-2.495559382275207E-12</v>
       </c>
       <c r="U2">
-        <v>3.163951222150094E-09</v>
+        <v>3.163957515457756E-09</v>
       </c>
       <c r="V2">
-        <v>-3.165203730059228E-09</v>
+        <v>-3.165206874028123E-09</v>
       </c>
       <c r="W2">
-        <v>2.495557294628432E-12</v>
+        <v>2.492412788747476E-12</v>
       </c>
       <c r="X2">
-        <v>-3.163952797476922E-09</v>
+        <v>-3.163962236901425E-09</v>
       </c>
       <c r="Y2">
-        <v>3.165197435020354E-09</v>
+        <v>3.165206875518847E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -12283,37 +12283,37 @@
         <v>0.66439163618761</v>
       </c>
       <c r="AH2">
-        <v>0.3321958179292141</v>
+        <v>0.3321958179292137</v>
       </c>
       <c r="AI2">
-        <v>0.332195818258402</v>
+        <v>0.3321958182584019</v>
       </c>
       <c r="AJ2">
-        <v>0.6643916362152698</v>
+        <v>0.66439163621527</v>
       </c>
       <c r="AK2">
-        <v>0.3321958179009152</v>
+        <v>0.3321958179009148</v>
       </c>
       <c r="AL2">
-        <v>0.3321958183143616</v>
+        <v>0.3321958183143613</v>
       </c>
       <c r="AM2">
-        <v>0.01955212036741396</v>
+        <v>0.01955212036746307</v>
       </c>
       <c r="AN2">
         <v>-179.9804478777208</v>
       </c>
       <c r="AO2">
-        <v>-179.9804478815423</v>
+        <v>-179.9804478815425</v>
       </c>
       <c r="AP2">
-        <v>0.01955212177374359</v>
+        <v>0.01955212177380405</v>
       </c>
       <c r="AQ2">
         <v>-179.9804478640088</v>
       </c>
       <c r="AR2">
-        <v>-179.9804478924416</v>
+        <v>-179.9804478924418</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -12357,40 +12357,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.175801931878284E-10</v>
+        <v>8.175707473194596E-10</v>
       </c>
       <c r="O3">
-        <v>2.047542316988562E-10</v>
+        <v>2.047542316988578E-10</v>
       </c>
       <c r="P3">
-        <v>2.040311442458695E-10</v>
+        <v>2.040342925106703E-10</v>
       </c>
       <c r="Q3">
-        <v>-8.175770449116914E-10</v>
+        <v>-8.175723219775075E-10</v>
       </c>
       <c r="R3">
-        <v>-2.047542310835488E-10</v>
+        <v>-2.047542321575251E-10</v>
       </c>
       <c r="S3">
-        <v>-2.040311420195629E-10</v>
+        <v>-2.040311452414907E-10</v>
       </c>
       <c r="T3">
-        <v>8.234624353270234E-13</v>
+        <v>8.360479766896449E-13</v>
       </c>
       <c r="U3">
-        <v>-1.054654604526641E-09</v>
+        <v>-1.054654604526639E-09</v>
       </c>
       <c r="V3">
-        <v>1.05506790913099E-09</v>
+        <v>1.055064763014139E-09</v>
       </c>
       <c r="W3">
-        <v>-8.266085454731269E-13</v>
+        <v>-8.329013161551556E-13</v>
       </c>
       <c r="X3">
-        <v>1.054653030977513E-09</v>
+        <v>1.054656178168332E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.055074203466333E-09</v>
+        <v>-1.055064761893859E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -12414,37 +12414,37 @@
         <v>0.6643916362244897</v>
       </c>
       <c r="AH3">
-        <v>0.3321958178914821</v>
+        <v>0.3321958178914817</v>
       </c>
       <c r="AI3">
-        <v>0.3321958183330145</v>
+        <v>0.3321958183330144</v>
       </c>
       <c r="AJ3">
-        <v>0.6643916362152698</v>
+        <v>0.66439163621527</v>
       </c>
       <c r="AK3">
-        <v>0.3321958179009152</v>
+        <v>0.3321958179009148</v>
       </c>
       <c r="AL3">
-        <v>0.3321958183143616</v>
+        <v>0.3321958183143613</v>
       </c>
       <c r="AM3">
-        <v>0.01955212224252001</v>
+        <v>0.01955212224253353</v>
       </c>
       <c r="AN3">
-        <v>-179.9804478594381</v>
+        <v>-179.980447859438</v>
       </c>
       <c r="AO3">
-        <v>-179.9804478960747</v>
+        <v>-179.9804478960748</v>
       </c>
       <c r="AP3">
-        <v>0.01955212177374359</v>
+        <v>0.01955212177380405</v>
       </c>
       <c r="AQ3">
         <v>-179.9804478640088</v>
       </c>
       <c r="AR3">
-        <v>-179.9804478924416</v>
+        <v>-179.9804478924418</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -12488,40 +12488,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.1757389021438E-10</v>
+        <v>8.175707473194596E-10</v>
       </c>
       <c r="O4">
-        <v>2.047542327728331E-10</v>
+        <v>2.047542316988578E-10</v>
       </c>
       <c r="P4">
-        <v>2.040279949070971E-10</v>
+        <v>2.040342925106703E-10</v>
       </c>
       <c r="Q4">
-        <v>-8.175770373938633E-10</v>
+        <v>-8.175723219775075E-10</v>
       </c>
       <c r="R4">
-        <v>-2.04757378274369E-10</v>
+        <v>-2.047542321575251E-10</v>
       </c>
       <c r="S4">
-        <v>-2.040279926807895E-10</v>
+        <v>-2.040311452414907E-10</v>
       </c>
       <c r="T4">
-        <v>8.486378139534225E-13</v>
+        <v>8.360479766896449E-13</v>
       </c>
       <c r="U4">
-        <v>-1.05465775171746E-09</v>
+        <v>-1.054654604526639E-09</v>
       </c>
       <c r="V4">
-        <v>1.055074202438664E-09</v>
+        <v>1.055064763014139E-09</v>
       </c>
       <c r="W4">
-        <v>-8.486388812283196E-13</v>
+        <v>-8.329013161551556E-13</v>
       </c>
       <c r="X4">
-        <v>1.054653029903537E-09</v>
+        <v>1.054656178168332E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.055080496774006E-09</v>
+        <v>-1.055064761893859E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -12545,37 +12545,37 @@
         <v>0.6643916362244897</v>
       </c>
       <c r="AH4">
-        <v>0.3321958178914821</v>
+        <v>0.3321958178914817</v>
       </c>
       <c r="AI4">
-        <v>0.3321958183330146</v>
+        <v>0.3321958183330144</v>
       </c>
       <c r="AJ4">
-        <v>0.6643916362152698</v>
+        <v>0.66439163621527</v>
       </c>
       <c r="AK4">
-        <v>0.3321958179009152</v>
+        <v>0.3321958179009148</v>
       </c>
       <c r="AL4">
-        <v>0.3321958183143616</v>
+        <v>0.3321958183143613</v>
       </c>
       <c r="AM4">
-        <v>0.01955212224249465</v>
+        <v>0.01955212224253353</v>
       </c>
       <c r="AN4">
-        <v>-179.9804478594381</v>
+        <v>-179.980447859438</v>
       </c>
       <c r="AO4">
         <v>-179.9804478960748</v>
       </c>
       <c r="AP4">
-        <v>0.01955212177374359</v>
+        <v>0.01955212177380405</v>
       </c>
       <c r="AQ4">
         <v>-179.9804478640088</v>
       </c>
       <c r="AR4">
-        <v>-179.9804478924416</v>
+        <v>-179.9804478924418</v>
       </c>
     </row>
   </sheetData>
@@ -12766,40 +12766,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-1.94772970542643E-09</v>
+        <v>-1.947736290869998E-09</v>
       </c>
       <c r="O2">
-        <v>-1.540753822025684E-09</v>
+        <v>-1.540765553366491E-09</v>
       </c>
       <c r="P2">
-        <v>-2.507005506028969E-09</v>
+        <v>-2.507010027912919E-09</v>
       </c>
       <c r="Q2">
-        <v>1.94772505355056E-09</v>
+        <v>1.94774003671293E-09</v>
       </c>
       <c r="R2">
-        <v>1.540756926417791E-09</v>
+        <v>1.540767000773802E-09</v>
       </c>
       <c r="S2">
-        <v>2.507006693370757E-09</v>
+        <v>2.507007927491699E-09</v>
       </c>
       <c r="T2">
-        <v>5.630823641704128E-10</v>
+        <v>5.630791639603755E-10</v>
       </c>
       <c r="U2">
-        <v>3.61947216290782E-09</v>
+        <v>3.619478599224467E-09</v>
       </c>
       <c r="V2">
-        <v>-8.22934807714704E-10</v>
+        <v>-8.229459709984872E-10</v>
       </c>
       <c r="W2">
-        <v>-5.63083873314408E-10</v>
+        <v>-5.630775941344577E-10</v>
       </c>
       <c r="X2">
-        <v>-3.619469286922712E-09</v>
+        <v>-3.619472066882017E-09</v>
       </c>
       <c r="Y2">
-        <v>8.229334607923683E-10</v>
+        <v>8.229429236867256E-10</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -12820,25 +12820,25 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.7668755422478354</v>
+        <v>0.7668755422478353</v>
       </c>
       <c r="AH2">
-        <v>0.5649615026650587</v>
+        <v>0.5649615026650584</v>
       </c>
       <c r="AI2">
-        <v>0.3790339612538544</v>
+        <v>0.3790339612538547</v>
       </c>
       <c r="AJ2">
-        <v>0.7668755422636042</v>
+        <v>0.7668755422636044</v>
       </c>
       <c r="AK2">
-        <v>0.564961502657131</v>
+        <v>0.5649615026571307</v>
       </c>
       <c r="AL2">
-        <v>0.3790339613129891</v>
+        <v>0.3790339613129896</v>
       </c>
       <c r="AM2">
-        <v>-3.827350193674389</v>
+        <v>-3.82735019367436</v>
       </c>
       <c r="AN2">
         <v>-155.6209588726732</v>
@@ -12847,13 +12847,13 @@
         <v>131.3836767675908</v>
       </c>
       <c r="AP2">
-        <v>-3.827350192423927</v>
+        <v>-3.827350192423889</v>
       </c>
       <c r="AQ2">
         <v>-155.6209588665842</v>
       </c>
       <c r="AR2">
-        <v>131.3836767695575</v>
+        <v>131.3836767695574</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -12897,40 +12897,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>6.492451665718905E-10</v>
+        <v>6.492394298091879E-10</v>
       </c>
       <c r="O3">
-        <v>5.135874771678282E-10</v>
+        <v>5.135874771678287E-10</v>
       </c>
       <c r="P3">
-        <v>8.356657011254648E-10</v>
+        <v>8.356666149306612E-10</v>
       </c>
       <c r="Q3">
-        <v>-6.492459514635686E-10</v>
+        <v>-6.492429331137178E-10</v>
       </c>
       <c r="R3">
-        <v>-5.135821637853522E-10</v>
+        <v>-5.135862583417104E-10</v>
       </c>
       <c r="S3">
-        <v>-8.356672083797948E-10</v>
+        <v>-8.356693091638996E-10</v>
       </c>
       <c r="T3">
-        <v>-1.877015321308264E-10</v>
+        <v>-1.876920464142219E-10</v>
       </c>
       <c r="U3">
         <v>-1.206499214331305E-09</v>
       </c>
       <c r="V3">
-        <v>2.743075392986018E-10</v>
+        <v>2.74311933961586E-10</v>
       </c>
       <c r="W3">
-        <v>1.877034050295592E-10</v>
+        <v>1.876941011731399E-10</v>
       </c>
       <c r="X3">
-        <v>1.206497214982599E-09</v>
+        <v>1.206499766683408E-09</v>
       </c>
       <c r="Y3">
-        <v>-2.743112603693698E-10</v>
+        <v>-2.743143078955752E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -12951,40 +12951,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.7668755422688605</v>
+        <v>0.7668755422688607</v>
       </c>
       <c r="AH3">
         <v>0.5649615026544883</v>
       </c>
       <c r="AI3">
-        <v>0.3790339613327004</v>
+        <v>0.3790339613327008</v>
       </c>
       <c r="AJ3">
-        <v>0.7668755422636042</v>
+        <v>0.7668755422636044</v>
       </c>
       <c r="AK3">
-        <v>0.564961502657131</v>
+        <v>0.5649615026571307</v>
       </c>
       <c r="AL3">
-        <v>0.3790339613129891</v>
+        <v>0.3790339613129896</v>
       </c>
       <c r="AM3">
-        <v>-3.827350192007103</v>
+        <v>-3.82735019200709</v>
       </c>
       <c r="AN3">
-        <v>-155.6209588645546</v>
+        <v>-155.6209588645545</v>
       </c>
       <c r="AO3">
-        <v>131.3836767702131</v>
+        <v>131.383676770213</v>
       </c>
       <c r="AP3">
-        <v>-3.827350192423927</v>
+        <v>-3.827350192423889</v>
       </c>
       <c r="AQ3">
         <v>-155.6209588665842</v>
       </c>
       <c r="AR3">
-        <v>131.3836767695575</v>
+        <v>131.3836767695574</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -13028,40 +13028,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>6.49228983661523E-10</v>
+        <v>6.492394298091879E-10</v>
       </c>
       <c r="O4">
-        <v>5.135945616240133E-10</v>
+        <v>5.135874771678287E-10</v>
       </c>
       <c r="P4">
-        <v>8.356741514039077E-10</v>
+        <v>8.356666149306612E-10</v>
       </c>
       <c r="Q4">
-        <v>-6.492298897933249E-10</v>
+        <v>-6.492429331137178E-10</v>
       </c>
       <c r="R4">
-        <v>-5.135963326977213E-10</v>
+        <v>-5.135862583417104E-10</v>
       </c>
       <c r="S4">
-        <v>-8.356762521476907E-10</v>
+        <v>-8.356693091638996E-10</v>
       </c>
       <c r="T4">
-        <v>-1.876713233258411E-10</v>
+        <v>-1.876920464142219E-10</v>
       </c>
       <c r="U4">
-        <v>-1.206501880161363E-09</v>
+        <v>-1.206499214331305E-09</v>
       </c>
       <c r="V4">
-        <v>2.743305394345627E-10</v>
+        <v>2.74311933961586E-10</v>
       </c>
       <c r="W4">
-        <v>1.876713839493393E-10</v>
+        <v>1.876941011731399E-10</v>
       </c>
       <c r="X4">
-        <v>1.206502546642715E-09</v>
+        <v>1.206499766683408E-09</v>
       </c>
       <c r="Y4">
-        <v>-2.743335869369406E-10</v>
+        <v>-2.743143078955752E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -13082,40 +13082,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.7668755422688605</v>
+        <v>0.7668755422688607</v>
       </c>
       <c r="AH4">
-        <v>0.5649615026544885</v>
+        <v>0.5649615026544883</v>
       </c>
       <c r="AI4">
         <v>0.3790339613327008</v>
       </c>
       <c r="AJ4">
-        <v>0.7668755422636042</v>
+        <v>0.7668755422636044</v>
       </c>
       <c r="AK4">
-        <v>0.564961502657131</v>
+        <v>0.5649615026571307</v>
       </c>
       <c r="AL4">
-        <v>0.3790339613129891</v>
+        <v>0.3790339613129896</v>
       </c>
       <c r="AM4">
-        <v>-3.827350192007134</v>
+        <v>-3.82735019200709</v>
       </c>
       <c r="AN4">
-        <v>-155.6209588645546</v>
+        <v>-155.6209588645545</v>
       </c>
       <c r="AO4">
         <v>131.383676770213</v>
       </c>
       <c r="AP4">
-        <v>-3.827350192423927</v>
+        <v>-3.827350192423889</v>
       </c>
       <c r="AQ4">
         <v>-155.6209588665842</v>
       </c>
       <c r="AR4">
-        <v>131.3836767695575</v>
+        <v>131.3836767695574</v>
       </c>
     </row>
   </sheetData>
@@ -13306,40 +13306,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-1.94772970542643E-09</v>
+        <v>-1.947736290869998E-09</v>
       </c>
       <c r="O2">
-        <v>-1.540753822025684E-09</v>
+        <v>-1.540765553366491E-09</v>
       </c>
       <c r="P2">
-        <v>-2.507005506028969E-09</v>
+        <v>-2.507010027912919E-09</v>
       </c>
       <c r="Q2">
-        <v>1.94772505355056E-09</v>
+        <v>1.94774003671293E-09</v>
       </c>
       <c r="R2">
-        <v>1.540756926417791E-09</v>
+        <v>1.540767000773802E-09</v>
       </c>
       <c r="S2">
-        <v>2.507006693370757E-09</v>
+        <v>2.507007927491699E-09</v>
       </c>
       <c r="T2">
-        <v>5.630823641704128E-10</v>
+        <v>5.630791639603755E-10</v>
       </c>
       <c r="U2">
-        <v>3.61947216290782E-09</v>
+        <v>3.619478599224467E-09</v>
       </c>
       <c r="V2">
-        <v>-8.22934807714704E-10</v>
+        <v>-8.229459709984872E-10</v>
       </c>
       <c r="W2">
-        <v>-5.63083873314408E-10</v>
+        <v>-5.630775941344577E-10</v>
       </c>
       <c r="X2">
-        <v>-3.619469286922712E-09</v>
+        <v>-3.619472066882017E-09</v>
       </c>
       <c r="Y2">
-        <v>8.229334607923683E-10</v>
+        <v>8.229429236867256E-10</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -13360,25 +13360,25 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.7668755422478354</v>
+        <v>0.7668755422478353</v>
       </c>
       <c r="AH2">
-        <v>0.5649615026650587</v>
+        <v>0.5649615026650584</v>
       </c>
       <c r="AI2">
-        <v>0.3790339612538544</v>
+        <v>0.3790339612538547</v>
       </c>
       <c r="AJ2">
-        <v>0.7668755422636042</v>
+        <v>0.7668755422636044</v>
       </c>
       <c r="AK2">
-        <v>0.564961502657131</v>
+        <v>0.5649615026571307</v>
       </c>
       <c r="AL2">
-        <v>0.3790339613129891</v>
+        <v>0.3790339613129896</v>
       </c>
       <c r="AM2">
-        <v>-3.827350193674389</v>
+        <v>-3.82735019367436</v>
       </c>
       <c r="AN2">
         <v>-155.6209588726732</v>
@@ -13387,13 +13387,13 @@
         <v>131.3836767675908</v>
       </c>
       <c r="AP2">
-        <v>-3.827350192423927</v>
+        <v>-3.827350192423889</v>
       </c>
       <c r="AQ2">
         <v>-155.6209588665842</v>
       </c>
       <c r="AR2">
-        <v>131.3836767695575</v>
+        <v>131.3836767695574</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -13437,40 +13437,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>6.492451665718905E-10</v>
+        <v>6.492394298091879E-10</v>
       </c>
       <c r="O3">
-        <v>5.135874771678282E-10</v>
+        <v>5.135874771678287E-10</v>
       </c>
       <c r="P3">
-        <v>8.356657011254648E-10</v>
+        <v>8.356666149306612E-10</v>
       </c>
       <c r="Q3">
-        <v>-6.492459514635686E-10</v>
+        <v>-6.492429331137178E-10</v>
       </c>
       <c r="R3">
-        <v>-5.135821637853522E-10</v>
+        <v>-5.135862583417104E-10</v>
       </c>
       <c r="S3">
-        <v>-8.356672083797948E-10</v>
+        <v>-8.356693091638996E-10</v>
       </c>
       <c r="T3">
-        <v>-1.877015321308264E-10</v>
+        <v>-1.876920464142219E-10</v>
       </c>
       <c r="U3">
         <v>-1.206499214331305E-09</v>
       </c>
       <c r="V3">
-        <v>2.743075392986018E-10</v>
+        <v>2.74311933961586E-10</v>
       </c>
       <c r="W3">
-        <v>1.877034050295592E-10</v>
+        <v>1.876941011731399E-10</v>
       </c>
       <c r="X3">
-        <v>1.206497214982599E-09</v>
+        <v>1.206499766683408E-09</v>
       </c>
       <c r="Y3">
-        <v>-2.743112603693698E-10</v>
+        <v>-2.743143078955752E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -13491,40 +13491,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.7668755422688605</v>
+        <v>0.7668755422688607</v>
       </c>
       <c r="AH3">
         <v>0.5649615026544883</v>
       </c>
       <c r="AI3">
-        <v>0.3790339613327004</v>
+        <v>0.3790339613327008</v>
       </c>
       <c r="AJ3">
-        <v>0.7668755422636042</v>
+        <v>0.7668755422636044</v>
       </c>
       <c r="AK3">
-        <v>0.564961502657131</v>
+        <v>0.5649615026571307</v>
       </c>
       <c r="AL3">
-        <v>0.3790339613129891</v>
+        <v>0.3790339613129896</v>
       </c>
       <c r="AM3">
-        <v>-3.827350192007103</v>
+        <v>-3.82735019200709</v>
       </c>
       <c r="AN3">
-        <v>-155.6209588645546</v>
+        <v>-155.6209588645545</v>
       </c>
       <c r="AO3">
-        <v>131.3836767702131</v>
+        <v>131.383676770213</v>
       </c>
       <c r="AP3">
-        <v>-3.827350192423927</v>
+        <v>-3.827350192423889</v>
       </c>
       <c r="AQ3">
         <v>-155.6209588665842</v>
       </c>
       <c r="AR3">
-        <v>131.3836767695575</v>
+        <v>131.3836767695574</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -13568,40 +13568,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>6.49228983661523E-10</v>
+        <v>6.492394298091879E-10</v>
       </c>
       <c r="O4">
-        <v>5.135945616240133E-10</v>
+        <v>5.135874771678287E-10</v>
       </c>
       <c r="P4">
-        <v>8.356741514039077E-10</v>
+        <v>8.356666149306612E-10</v>
       </c>
       <c r="Q4">
-        <v>-6.492298897933249E-10</v>
+        <v>-6.492429331137178E-10</v>
       </c>
       <c r="R4">
-        <v>-5.135963326977213E-10</v>
+        <v>-5.135862583417104E-10</v>
       </c>
       <c r="S4">
-        <v>-8.356762521476907E-10</v>
+        <v>-8.356693091638996E-10</v>
       </c>
       <c r="T4">
-        <v>-1.876713233258411E-10</v>
+        <v>-1.876920464142219E-10</v>
       </c>
       <c r="U4">
-        <v>-1.206501880161363E-09</v>
+        <v>-1.206499214331305E-09</v>
       </c>
       <c r="V4">
-        <v>2.743305394345627E-10</v>
+        <v>2.74311933961586E-10</v>
       </c>
       <c r="W4">
-        <v>1.876713839493393E-10</v>
+        <v>1.876941011731399E-10</v>
       </c>
       <c r="X4">
-        <v>1.206502546642715E-09</v>
+        <v>1.206499766683408E-09</v>
       </c>
       <c r="Y4">
-        <v>-2.743335869369406E-10</v>
+        <v>-2.743143078955752E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -13622,40 +13622,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.7668755422688605</v>
+        <v>0.7668755422688607</v>
       </c>
       <c r="AH4">
-        <v>0.5649615026544885</v>
+        <v>0.5649615026544883</v>
       </c>
       <c r="AI4">
         <v>0.3790339613327008</v>
       </c>
       <c r="AJ4">
-        <v>0.7668755422636042</v>
+        <v>0.7668755422636044</v>
       </c>
       <c r="AK4">
-        <v>0.564961502657131</v>
+        <v>0.5649615026571307</v>
       </c>
       <c r="AL4">
-        <v>0.3790339613129891</v>
+        <v>0.3790339613129896</v>
       </c>
       <c r="AM4">
-        <v>-3.827350192007134</v>
+        <v>-3.82735019200709</v>
       </c>
       <c r="AN4">
-        <v>-155.6209588645546</v>
+        <v>-155.6209588645545</v>
       </c>
       <c r="AO4">
         <v>131.383676770213</v>
       </c>
       <c r="AP4">
-        <v>-3.827350192423927</v>
+        <v>-3.827350192423889</v>
       </c>
       <c r="AQ4">
         <v>-155.6209588665842</v>
       </c>
       <c r="AR4">
-        <v>131.3836767695575</v>
+        <v>131.3836767695574</v>
       </c>
     </row>
   </sheetData>
@@ -14968,40 +14968,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.605323420844211E-14</v>
+        <v>-4.301908298608072E-28</v>
       </c>
       <c r="O2">
-        <v>1.302657324430829E-14</v>
+        <v>1.563189667103331E-14</v>
       </c>
       <c r="P2">
-        <v>5.210602310044589E-15</v>
+        <v>-3.126392559129573E-14</v>
       </c>
       <c r="Q2">
-        <v>1.563194052506538E-14</v>
+        <v>-1.042129368337631E-14</v>
       </c>
       <c r="R2">
-        <v>-1.04208215775057E-14</v>
+        <v>-2.60485132109143E-15</v>
       </c>
       <c r="S2">
-        <v>-1.042082090133837E-14</v>
+        <v>2.605370699656625E-14</v>
       </c>
       <c r="T2">
-        <v>2.084258736675318E-14</v>
+        <v>3.647452789181863E-14</v>
       </c>
       <c r="U2">
-        <v>5.763394861896599E-09</v>
+        <v>5.763415704483954E-09</v>
       </c>
       <c r="V2">
-        <v>-5.763402682029843E-09</v>
+        <v>-5.76338183944246E-09</v>
       </c>
       <c r="W2">
-        <v>-2.08425873667533E-14</v>
+        <v>-3.647452789181874E-14</v>
       </c>
       <c r="X2">
-        <v>-5.763400072057539E-09</v>
+        <v>-5.763410493351213E-09</v>
       </c>
       <c r="Y2">
-        <v>5.763402682515742E-09</v>
+        <v>5.763392261222044E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -15025,37 +15025,37 @@
         <v>1.100000023808766</v>
       </c>
       <c r="AG2">
-        <v>0.550000011705746</v>
+        <v>0.5500000117057455</v>
       </c>
       <c r="AH2">
-        <v>0.5500000121030185</v>
+        <v>0.5500000121030176</v>
       </c>
       <c r="AI2">
         <v>1.100000023808766</v>
       </c>
       <c r="AJ2">
-        <v>0.5500000116593766</v>
+        <v>0.5500000116593762</v>
       </c>
       <c r="AK2">
-        <v>0.5500000121493877</v>
+        <v>0.550000012149387</v>
       </c>
       <c r="AL2">
-        <v>6.835683379550131E-13</v>
+        <v>6.757625214330023E-13</v>
       </c>
       <c r="AM2">
-        <v>-179.9999999995567</v>
+        <v>-179.9999999995568</v>
       </c>
       <c r="AN2">
         <v>179.99999999955</v>
       </c>
       <c r="AO2">
-        <v>7.06355645745588E-13</v>
+        <v>6.832222382337302E-13</v>
       </c>
       <c r="AP2">
         <v>-179.9999999952994</v>
       </c>
       <c r="AQ2">
-        <v>179.9999999952926</v>
+        <v>179.9999999952927</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -15099,40 +15099,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-1.563194052506458E-14</v>
+        <v>-5.210646841688121E-15</v>
       </c>
       <c r="O3">
-        <v>1.302682204731261E-14</v>
+        <v>-5.210441892235249E-15</v>
       </c>
       <c r="P3">
-        <v>1.563214570858114E-14</v>
+        <v>1.042149886354878E-14</v>
       </c>
       <c r="Q3">
-        <v>5.210646841687731E-15</v>
+        <v>-5.210646841688684E-15</v>
       </c>
       <c r="R3">
-        <v>-1.573656534921777E-19</v>
+        <v>1.823710657244146E-14</v>
       </c>
       <c r="S3">
-        <v>-3.126403865961736E-14</v>
+        <v>-1.563209812363152E-14</v>
       </c>
       <c r="T3">
-        <v>-4.168517473350715E-14</v>
+        <v>-2.084258736675355E-14</v>
       </c>
       <c r="U3">
-        <v>-1.921131620416245E-09</v>
+        <v>-1.921121199122566E-09</v>
       </c>
       <c r="V3">
-        <v>1.92111338497186E-09</v>
+        <v>1.921134227559234E-09</v>
       </c>
       <c r="W3">
-        <v>5.21064684168838E-14</v>
+        <v>2.60532342084418E-14</v>
       </c>
       <c r="X3">
-        <v>1.921115988529715E-09</v>
+        <v>1.921126409823394E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.921134227505244E-09</v>
+        <v>-1.921123806211556E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -15153,40 +15153,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.100000023808765</v>
+        <v>1.100000023808766</v>
       </c>
       <c r="AG3">
-        <v>0.5500000116439208</v>
+        <v>0.5500000116439201</v>
       </c>
       <c r="AH3">
-        <v>0.5500000121648446</v>
+        <v>0.5500000121648437</v>
       </c>
       <c r="AI3">
         <v>1.100000023808766</v>
       </c>
       <c r="AJ3">
-        <v>0.5500000116593766</v>
+        <v>0.5500000116593762</v>
       </c>
       <c r="AK3">
-        <v>0.5500000121493877</v>
+        <v>0.550000012149387</v>
       </c>
       <c r="AL3">
-        <v>7.194758010685721E-13</v>
+        <v>6.894416980032988E-13</v>
       </c>
       <c r="AM3">
         <v>-179.9999999938803</v>
       </c>
       <c r="AN3">
-        <v>179.9999999938735</v>
+        <v>179.9999999938736</v>
       </c>
       <c r="AO3">
-        <v>7.06355645745588E-13</v>
+        <v>6.832222382337302E-13</v>
       </c>
       <c r="AP3">
         <v>-179.9999999952994</v>
       </c>
       <c r="AQ3">
-        <v>179.9999999952926</v>
+        <v>179.9999999952927</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -15230,40 +15230,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-5.210646841687913E-15</v>
+        <v>-5.210646841688121E-15</v>
       </c>
       <c r="O4">
-        <v>2.605528368871056E-15</v>
+        <v>-5.210441892235249E-15</v>
       </c>
       <c r="P4">
-        <v>3.647473308631799E-14</v>
+        <v>1.042149886354878E-14</v>
       </c>
       <c r="Q4">
-        <v>-5.210646841688824E-15</v>
+        <v>-5.210646841688684E-15</v>
       </c>
       <c r="R4">
-        <v>1.042113631137363E-14</v>
+        <v>1.823710657244146E-14</v>
       </c>
       <c r="S4">
-        <v>-4.168533234763641E-14</v>
+        <v>-1.563209812363152E-14</v>
       </c>
       <c r="T4">
-        <v>-3.647452789181866E-14</v>
+        <v>-2.084258736675355E-14</v>
       </c>
       <c r="U4">
-        <v>-1.921131620416245E-09</v>
+        <v>-1.921121199122566E-09</v>
       </c>
       <c r="V4">
-        <v>1.921123806265546E-09</v>
+        <v>1.921134227559234E-09</v>
       </c>
       <c r="W4">
-        <v>3.647452789181855E-14</v>
+        <v>2.60532342084418E-14</v>
       </c>
       <c r="X4">
-        <v>1.921136831117073E-09</v>
+        <v>1.921126409823394E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.921134227505244E-09</v>
+        <v>-1.921123806211556E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -15284,40 +15284,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.100000023808765</v>
+        <v>1.100000023808766</v>
       </c>
       <c r="AG4">
-        <v>0.5500000116439206</v>
+        <v>0.5500000116439201</v>
       </c>
       <c r="AH4">
-        <v>0.5500000121648447</v>
+        <v>0.5500000121648437</v>
       </c>
       <c r="AI4">
         <v>1.100000023808766</v>
       </c>
       <c r="AJ4">
-        <v>0.5500000116593766</v>
+        <v>0.5500000116593762</v>
       </c>
       <c r="AK4">
-        <v>0.5500000121493877</v>
+        <v>0.550000012149387</v>
       </c>
       <c r="AL4">
-        <v>7.194740614528267E-13</v>
+        <v>6.894416980032988E-13</v>
       </c>
       <c r="AM4">
         <v>-179.9999999938803</v>
       </c>
       <c r="AN4">
-        <v>179.9999999938735</v>
+        <v>179.9999999938736</v>
       </c>
       <c r="AO4">
-        <v>7.06355645745588E-13</v>
+        <v>6.832222382337302E-13</v>
       </c>
       <c r="AP4">
         <v>-179.9999999952994</v>
       </c>
       <c r="AQ4">
-        <v>179.9999999952926</v>
+        <v>179.9999999952927</v>
       </c>
     </row>
   </sheetData>
